--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
@@ -200,9 +200,6 @@
     <t>Chuyển khoản/tiền mặt anh lâm nhận từ khách: 3.155.000</t>
   </si>
   <si>
-    <t>- Chi tiết tiền Hăng thu: 12.276.000</t>
-  </si>
-  <si>
     <t>CK anh Lâm 10/11:</t>
   </si>
   <si>
@@ -224,13 +221,16 @@
     <t>- Số tiền còn lại: 12.276.000 - 7.389.000 = 4.897.000</t>
   </si>
   <si>
-    <t>- Số tiền Hoa hồng của chị Thơm HC (Chưa thanh toán, Cộng vào tiền thưởng (Bảng lương): 12h Nanomilk * 50.000 = 600.000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chuyển khoản/tiền mặt Hằng nhận từ khách: 11.476.000+800.000 = 12.276.000 tiền bán gà cho hàng xóm </t>
   </si>
   <si>
     <t xml:space="preserve"> Số:112020/DTSR. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>- Chi tiết tiền Hăng thu: 12.276.000 (CÓ bản chi tiết)</t>
+  </si>
+  <si>
+    <t>- Số tiền Hoa hồng của chị Thơm HC (Chưa thanh toán, Cộng vào tiền thưởng (Bảng lương): 19h Nanomilk * 50.000 = 950.000</t>
   </si>
 </sst>
 </file>
@@ -700,106 +700,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -822,6 +729,99 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6"/>
       <c r="E2" s="2"/>
@@ -1158,122 +1158,122 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
+      <c r="A4" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="95" t="s">
+      <c r="K6" s="113"/>
+      <c r="L6" s="112" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92" t="s">
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="91" t="s">
+      <c r="J7" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="95"/>
+      <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
       <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="95"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="112"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="57">
@@ -1342,10 +1342,10 @@
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="81">
+      <c r="A11" s="97">
         <v>44142</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="94" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1377,8 +1377,8 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
@@ -1407,8 +1407,8 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="79"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="22" t="s">
         <v>26</v>
       </c>
@@ -1438,10 +1438,10 @@
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="78">
+      <c r="A14" s="92">
         <v>44142</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="95" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -1473,8 +1473,8 @@
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
@@ -1504,8 +1504,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
@@ -1535,10 +1535,10 @@
       <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="81">
+      <c r="A17" s="97">
         <v>44143</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="94" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1570,8 +1570,8 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
@@ -1599,8 +1599,8 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
@@ -1630,8 +1630,8 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="17" t="s">
         <v>24</v>
       </c>
@@ -1663,8 +1663,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="17" t="s">
         <v>30</v>
       </c>
@@ -1692,8 +1692,8 @@
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="22" t="s">
         <v>31</v>
       </c>
@@ -1721,10 +1721,10 @@
       <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="84">
+      <c r="A23" s="100">
         <v>44144</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="98" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1756,8 +1756,8 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="20" t="s">
         <v>33</v>
       </c>
@@ -1785,10 +1785,10 @@
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="81">
+      <c r="A25" s="97">
         <v>44146</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="94" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="60" t="s">
@@ -1818,8 +1818,8 @@
       <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="60" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1847,8 @@
       <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="60" t="s">
         <v>38</v>
       </c>
@@ -1873,13 +1873,13 @@
         <v>550000</v>
       </c>
       <c r="K27" s="54"/>
-      <c r="L27" s="98" t="s">
+      <c r="L27" s="106" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="99"/>
-      <c r="B28" s="97"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="60" t="s">
         <v>39</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>225000</v>
       </c>
       <c r="K28" s="54"/>
-      <c r="L28" s="97"/>
+      <c r="L28" s="107"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
@@ -1940,10 +1940,10 @@
       <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="100">
+      <c r="A30" s="109">
         <v>44149</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="106" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -1973,8 +1973,8 @@
       <c r="L30" s="60"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
-      <c r="B31" s="97"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="60" t="s">
         <v>38</v>
       </c>
@@ -2005,10 +2005,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="100">
+      <c r="A32" s="109">
         <v>44151</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="106" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -2038,8 +2038,8 @@
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="15" t="s">
         <v>45</v>
       </c>
@@ -2060,15 +2060,15 @@
         <v>180000</v>
       </c>
       <c r="J33" s="36">
-        <f>I33</f>
+        <f t="shared" ref="J33:J45" si="8">I33</f>
         <v>180000</v>
       </c>
       <c r="K33" s="36"/>
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="99"/>
-      <c r="B34" s="97"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="15" t="s">
         <v>46</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>310000</v>
       </c>
       <c r="J34" s="36">
-        <f>I34</f>
+        <f t="shared" si="8"/>
         <v>310000</v>
       </c>
       <c r="K34" s="36"/>
@@ -2122,7 +2122,7 @@
         <v>465000</v>
       </c>
       <c r="J35" s="36">
-        <f>I35</f>
+        <f t="shared" si="8"/>
         <v>465000</v>
       </c>
       <c r="K35" s="36"/>
@@ -2155,17 +2155,17 @@
         <v>485000</v>
       </c>
       <c r="J36" s="36">
-        <f>I36</f>
+        <f t="shared" si="8"/>
         <v>485000</v>
       </c>
       <c r="K36" s="36"/>
       <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="100">
+      <c r="A37" s="109">
         <v>44156</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="106" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -2189,7 +2189,7 @@
         <v>133000</v>
       </c>
       <c r="J37" s="36">
-        <f>I37</f>
+        <f t="shared" si="8"/>
         <v>133000</v>
       </c>
       <c r="K37" s="36"/>
@@ -2198,8 +2198,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="99"/>
-      <c r="B38" s="97"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="15" t="s">
         <v>38</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>325000</v>
       </c>
       <c r="J38" s="36">
-        <f>I38</f>
+        <f t="shared" si="8"/>
         <v>325000</v>
       </c>
       <c r="K38" s="36"/>
@@ -2230,7 +2230,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="100">
+      <c r="A39" s="109">
         <v>44160</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -2256,14 +2256,14 @@
         <v>380000</v>
       </c>
       <c r="J39" s="36">
-        <f>I39</f>
+        <f t="shared" si="8"/>
         <v>380000</v>
       </c>
       <c r="K39" s="36"/>
       <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="99"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="15" t="s">
         <v>20</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="36">
-        <f>I40</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K40" s="36"/>
@@ -2295,10 +2295,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="100">
+      <c r="A41" s="109">
         <v>44161</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="106" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -2321,15 +2321,15 @@
         <v>455000</v>
       </c>
       <c r="J41" s="36">
-        <f>I41</f>
+        <f t="shared" si="8"/>
         <v>455000</v>
       </c>
       <c r="K41" s="36"/>
       <c r="L41" s="15"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="95"/>
       <c r="C42" s="15" t="s">
         <v>29</v>
       </c>
@@ -2350,15 +2350,15 @@
         <v>520000</v>
       </c>
       <c r="J42" s="36">
-        <f>I42</f>
+        <f t="shared" si="8"/>
         <v>520000</v>
       </c>
       <c r="K42" s="36"/>
       <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="15" t="s">
         <v>39</v>
       </c>
@@ -2379,15 +2379,15 @@
         <v>225000</v>
       </c>
       <c r="J43" s="36">
-        <f>I43</f>
+        <f t="shared" si="8"/>
         <v>225000</v>
       </c>
       <c r="K43" s="36"/>
       <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="95"/>
       <c r="C44" s="15" t="s">
         <v>51</v>
       </c>
@@ -2408,15 +2408,15 @@
         <v>35000</v>
       </c>
       <c r="J44" s="36">
-        <f>I44</f>
+        <f t="shared" si="8"/>
         <v>35000</v>
       </c>
       <c r="K44" s="36"/>
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="97"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="15" t="s">
         <v>26</v>
       </c>
@@ -2439,14 +2439,14 @@
         <v>430000</v>
       </c>
       <c r="J45" s="36">
-        <f>I45</f>
+        <f t="shared" si="8"/>
         <v>430000</v>
       </c>
       <c r="K45" s="36"/>
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="99"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
       </c>
@@ -2545,10 +2545,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="100">
+      <c r="A49" s="109">
         <v>44165</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="106" t="s">
         <v>27</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -2578,8 +2578,8 @@
       <c r="L49" s="15"/>
     </row>
     <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
-      <c r="B50" s="76"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="95"/>
       <c r="C50" s="15" t="s">
         <v>49</v>
       </c>
@@ -2603,13 +2603,13 @@
         <v>295000</v>
       </c>
       <c r="K50" s="36"/>
-      <c r="L50" s="101" t="s">
+      <c r="L50" s="76" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="78"/>
-      <c r="B51" s="76"/>
+      <c r="A51" s="92"/>
+      <c r="B51" s="95"/>
       <c r="C51" s="15" t="s">
         <v>55</v>
       </c>
@@ -2637,8 +2637,8 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
-      <c r="B52" s="76"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="95"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -2667,8 +2667,8 @@
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="99"/>
-      <c r="B53" s="97"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="15" t="s">
         <v>21</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
-      <c r="L66" s="88"/>
+      <c r="L66" s="104"/>
     </row>
     <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
@@ -2890,7 +2890,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
-      <c r="L67" s="88"/>
+      <c r="L67" s="104"/>
     </row>
     <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
@@ -2904,7 +2904,7 @@
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
-      <c r="L68" s="88"/>
+      <c r="L68" s="104"/>
     </row>
     <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
@@ -2918,7 +2918,7 @@
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18"/>
-      <c r="L69" s="88"/>
+      <c r="L69" s="104"/>
     </row>
     <row r="70" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
@@ -2932,7 +2932,7 @@
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
       <c r="K70" s="18"/>
-      <c r="L70" s="88"/>
+      <c r="L70" s="104"/>
     </row>
     <row r="71" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
@@ -2946,7 +2946,7 @@
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
-      <c r="L71" s="88"/>
+      <c r="L71" s="104"/>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
@@ -2988,7 +2988,7 @@
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
-      <c r="L74" s="88"/>
+      <c r="L74" s="104"/>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
@@ -3002,7 +3002,7 @@
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
       <c r="K75" s="18"/>
-      <c r="L75" s="88"/>
+      <c r="L75" s="104"/>
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
@@ -3016,7 +3016,7 @@
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="K76" s="18"/>
-      <c r="L76" s="88"/>
+      <c r="L76" s="104"/>
     </row>
     <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
@@ -3383,11 +3383,11 @@
       <c r="L102" s="22"/>
     </row>
     <row r="103" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="89" t="s">
+      <c r="A103" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="89"/>
-      <c r="C103" s="89"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="116"/>
       <c r="D103" s="39">
         <f>SUM(D9:D102)</f>
         <v>48</v>
@@ -3398,7 +3398,7 @@
         <v>16710000</v>
       </c>
       <c r="G103" s="41">
-        <f t="shared" ref="G103:K103" si="8">SUM(G9:G102)</f>
+        <f t="shared" ref="G103:K103" si="9">SUM(G9:G102)</f>
         <v>270000</v>
       </c>
       <c r="H103" s="41"/>
@@ -3407,11 +3407,11 @@
         <v>14631000</v>
       </c>
       <c r="J103" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11476000</v>
       </c>
       <c r="K103" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3155000</v>
       </c>
       <c r="L103" s="40"/>
@@ -3439,14 +3439,14 @@
       <c r="D105" s="73"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="113" t="s">
+      <c r="A106" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B106" s="115"/>
-      <c r="C106" s="116"/>
-      <c r="D106" s="116"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="118"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="87"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="74" t="s">
@@ -3459,7 +3459,7 @@
     </row>
     <row r="108" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
@@ -3467,48 +3467,48 @@
       <c r="E108" s="71"/>
       <c r="F108" s="45"/>
     </row>
-    <row r="109" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="80"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B110" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="B109" s="111"/>
-      <c r="C109" s="111"/>
-      <c r="D109" s="111"/>
-      <c r="E109" s="111"/>
-      <c r="F109" s="111"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="103" t="s">
+      <c r="C110" s="118"/>
+      <c r="D110" s="118"/>
+      <c r="E110" s="119"/>
+      <c r="F110" s="77">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B111" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="C110" s="104"/>
-      <c r="D110" s="104"/>
-      <c r="E110" s="105"/>
-      <c r="F110" s="102">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="C111" s="104"/>
-      <c r="D111" s="104"/>
-      <c r="E111" s="105"/>
-      <c r="F111" s="102">
+      <c r="C111" s="118"/>
+      <c r="D111" s="118"/>
+      <c r="E111" s="119"/>
+      <c r="F111" s="77">
         <v>721000</v>
       </c>
       <c r="I111" s="14"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
-      <c r="B112" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" s="104"/>
-      <c r="D112" s="104"/>
-      <c r="E112" s="105"/>
-      <c r="F112" s="102">
+      <c r="B112" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" s="118"/>
+      <c r="D112" s="118"/>
+      <c r="E112" s="119"/>
+      <c r="F112" s="77">
         <v>910000</v>
       </c>
       <c r="G112" s="14"/>
@@ -3518,68 +3518,68 @@
       <c r="K112" s="14"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="C113" s="104"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="105"/>
-      <c r="F113" s="102">
+      <c r="B113" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="118"/>
+      <c r="D113" s="118"/>
+      <c r="E113" s="119"/>
+      <c r="F113" s="77">
         <v>300000</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="104"/>
-      <c r="D114" s="104"/>
-      <c r="E114" s="105"/>
-      <c r="F114" s="102">
+      <c r="B114" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="118"/>
+      <c r="D114" s="118"/>
+      <c r="E114" s="119"/>
+      <c r="F114" s="77">
         <v>235000</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="104"/>
-      <c r="D115" s="104"/>
-      <c r="E115" s="105"/>
-      <c r="F115" s="102">
+      <c r="B115" s="117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="118"/>
+      <c r="D115" s="118"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="77">
         <v>2223000</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="107" t="s">
+      <c r="B116" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="108"/>
-      <c r="D116" s="108"/>
-      <c r="E116" s="109"/>
-      <c r="F116" s="110">
+      <c r="C116" s="121"/>
+      <c r="D116" s="121"/>
+      <c r="E116" s="122"/>
+      <c r="F116" s="79">
         <f>SUM(F110:F115)</f>
         <v>7389000</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="B117" s="114"/>
-      <c r="C117" s="114"/>
-      <c r="D117" s="114"/>
-      <c r="E117" s="114"/>
-      <c r="F117" s="106"/>
+      <c r="A117" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" s="83"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="78"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="122" t="s">
-        <v>66</v>
-      </c>
-      <c r="B118" s="119"/>
-      <c r="C118" s="120"/>
-      <c r="D118" s="120"/>
-      <c r="E118" s="121"/>
+      <c r="A118" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B118" s="88"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="89"/>
+      <c r="E118" s="90"/>
       <c r="I118" s="14"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -3609,6 +3609,11 @@
     <mergeCell ref="L74:L76"/>
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="L66:L69"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
@@ -3617,11 +3622,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L8"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A3:L3"/>

--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 11_2020" sheetId="1" r:id="rId1"/>
+    <sheet name="Tháng 12_2020" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -231,6 +232,30 @@
   </si>
   <si>
     <t>- Số tiền Hoa hồng của chị Thơm HC (Chưa thanh toán, Cộng vào tiền thưởng (Bảng lương): 19h Nanomilk * 50.000 = 950.000</t>
+  </si>
+  <si>
+    <t>Tháng 12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:122020/DTSR. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>2CX45</t>
+  </si>
+  <si>
+    <t>Huggeis Dán M</t>
+  </si>
+  <si>
+    <t>BCX45</t>
+  </si>
+  <si>
+    <t>Tặng cốc</t>
+  </si>
+  <si>
+    <t>C Thơm</t>
+  </si>
+  <si>
+    <t>Tặng mũ</t>
   </si>
 </sst>
 </file>
@@ -243,7 +268,7 @@
     <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +372,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -368,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -536,6 +582,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -543,7 +598,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -730,59 +785,53 @@
     <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -802,26 +851,111 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1108,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1158,122 +1292,122 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="A4" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="113"/>
-      <c r="L6" s="112" t="s">
+      <c r="K6" s="111"/>
+      <c r="L6" s="110" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115" t="s">
+      <c r="H7" s="112"/>
+      <c r="I7" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="115" t="s">
+      <c r="J7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="112"/>
+      <c r="L7" s="110"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="112"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="110"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="57">
@@ -1342,10 +1476,10 @@
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="97">
+      <c r="A11" s="116">
         <v>44142</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="114" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1377,8 +1511,8 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="92"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
@@ -1407,8 +1541,8 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="22" t="s">
         <v>26</v>
       </c>
@@ -1438,10 +1572,10 @@
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="92">
+      <c r="A14" s="101">
         <v>44142</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="104" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -1473,8 +1607,8 @@
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="92"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
@@ -1504,8 +1638,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
@@ -1535,10 +1669,10 @@
       <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="97">
+      <c r="A17" s="116">
         <v>44143</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="114" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1570,8 +1704,8 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="92"/>
-      <c r="B18" s="95"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
@@ -1599,8 +1733,8 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="92"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
@@ -1630,8 +1764,8 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="92"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="17" t="s">
         <v>24</v>
       </c>
@@ -1663,8 +1797,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="17" t="s">
         <v>30</v>
       </c>
@@ -1692,8 +1826,8 @@
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
-      <c r="B22" s="96"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="22" t="s">
         <v>31</v>
       </c>
@@ -1721,10 +1855,10 @@
       <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="100">
+      <c r="A23" s="123">
         <v>44144</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="121" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1756,8 +1890,8 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="101"/>
-      <c r="B24" s="99"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="20" t="s">
         <v>33</v>
       </c>
@@ -1785,10 +1919,10 @@
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="97">
+      <c r="A25" s="116">
         <v>44146</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="114" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="60" t="s">
@@ -1818,8 +1952,8 @@
       <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="92"/>
-      <c r="B26" s="95"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="60" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1981,8 @@
       <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92"/>
-      <c r="B27" s="95"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="60" t="s">
         <v>38</v>
       </c>
@@ -1873,13 +2007,13 @@
         <v>550000</v>
       </c>
       <c r="K27" s="54"/>
-      <c r="L27" s="106" t="s">
+      <c r="L27" s="103" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="108"/>
-      <c r="B28" s="107"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="60" t="s">
         <v>39</v>
       </c>
@@ -1904,7 +2038,7 @@
         <v>225000</v>
       </c>
       <c r="K28" s="54"/>
-      <c r="L28" s="107"/>
+      <c r="L28" s="105"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
@@ -1940,10 +2074,10 @@
       <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="109">
+      <c r="A30" s="100">
         <v>44149</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="103" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -1973,8 +2107,8 @@
       <c r="L30" s="60"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="108"/>
-      <c r="B31" s="107"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="60" t="s">
         <v>38</v>
       </c>
@@ -2005,10 +2139,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="109">
+      <c r="A32" s="100">
         <v>44151</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="103" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -2038,8 +2172,8 @@
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="92"/>
-      <c r="B33" s="95"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="15" t="s">
         <v>45</v>
       </c>
@@ -2067,8 +2201,8 @@
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="108"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="15" t="s">
         <v>46</v>
       </c>
@@ -2162,10 +2296,10 @@
       <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="109">
+      <c r="A37" s="100">
         <v>44156</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="103" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -2198,8 +2332,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="108"/>
-      <c r="B38" s="107"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="15" t="s">
         <v>38</v>
       </c>
@@ -2230,7 +2364,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="109">
+      <c r="A39" s="100">
         <v>44160</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -2263,7 +2397,7 @@
       <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="108"/>
+      <c r="A40" s="102"/>
       <c r="B40" s="15" t="s">
         <v>20</v>
       </c>
@@ -2295,10 +2429,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="109">
+      <c r="A41" s="100">
         <v>44161</v>
       </c>
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="103" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -2328,8 +2462,8 @@
       <c r="L41" s="15"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="92"/>
-      <c r="B42" s="95"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="15" t="s">
         <v>29</v>
       </c>
@@ -2357,8 +2491,8 @@
       <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="92"/>
-      <c r="B43" s="95"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="15" t="s">
         <v>39</v>
       </c>
@@ -2386,8 +2520,8 @@
       <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="92"/>
-      <c r="B44" s="95"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="15" t="s">
         <v>51</v>
       </c>
@@ -2415,8 +2549,8 @@
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="92"/>
-      <c r="B45" s="107"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="15" t="s">
         <v>26</v>
       </c>
@@ -2446,7 +2580,7 @@
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="108"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
       </c>
@@ -2545,10 +2679,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="109">
+      <c r="A49" s="100">
         <v>44165</v>
       </c>
-      <c r="B49" s="106" t="s">
+      <c r="B49" s="103" t="s">
         <v>27</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -2578,8 +2712,8 @@
       <c r="L49" s="15"/>
     </row>
     <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="92"/>
-      <c r="B50" s="95"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="15" t="s">
         <v>49</v>
       </c>
@@ -2608,8 +2742,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="92"/>
-      <c r="B51" s="95"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="15" t="s">
         <v>55</v>
       </c>
@@ -2637,8 +2771,8 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="92"/>
-      <c r="B52" s="95"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -2667,8 +2801,8 @@
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="108"/>
-      <c r="B53" s="107"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="15" t="s">
         <v>21</v>
       </c>
@@ -2876,7 +3010,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
-      <c r="L66" s="104"/>
+      <c r="L66" s="106"/>
     </row>
     <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
@@ -2890,7 +3024,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
-      <c r="L67" s="104"/>
+      <c r="L67" s="106"/>
     </row>
     <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
@@ -2904,7 +3038,7 @@
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
-      <c r="L68" s="104"/>
+      <c r="L68" s="106"/>
     </row>
     <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
@@ -2918,7 +3052,7 @@
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18"/>
-      <c r="L69" s="104"/>
+      <c r="L69" s="106"/>
     </row>
     <row r="70" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
@@ -2932,7 +3066,7 @@
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
       <c r="K70" s="18"/>
-      <c r="L70" s="104"/>
+      <c r="L70" s="106"/>
     </row>
     <row r="71" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
@@ -2946,7 +3080,7 @@
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
-      <c r="L71" s="104"/>
+      <c r="L71" s="106"/>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
@@ -2988,7 +3122,7 @@
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
-      <c r="L74" s="104"/>
+      <c r="L74" s="106"/>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
@@ -3002,7 +3136,7 @@
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
       <c r="K75" s="18"/>
-      <c r="L75" s="104"/>
+      <c r="L75" s="106"/>
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
@@ -3016,7 +3150,7 @@
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="K76" s="18"/>
-      <c r="L76" s="104"/>
+      <c r="L76" s="106"/>
     </row>
     <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
@@ -3383,11 +3517,11 @@
       <c r="L102" s="22"/>
     </row>
     <row r="103" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="116" t="s">
+      <c r="A103" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="116"/>
-      <c r="C103" s="116"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
       <c r="D103" s="39">
         <f>SUM(D9:D102)</f>
         <v>48</v>
@@ -3478,23 +3612,23 @@
       <c r="F109" s="80"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="117" t="s">
+      <c r="B110" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C110" s="118"/>
-      <c r="D110" s="118"/>
-      <c r="E110" s="119"/>
+      <c r="C110" s="95"/>
+      <c r="D110" s="95"/>
+      <c r="E110" s="96"/>
       <c r="F110" s="77">
         <v>3000000</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="117" t="s">
+      <c r="B111" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="118"/>
-      <c r="D111" s="118"/>
-      <c r="E111" s="119"/>
+      <c r="C111" s="95"/>
+      <c r="D111" s="95"/>
+      <c r="E111" s="96"/>
       <c r="F111" s="77">
         <v>721000</v>
       </c>
@@ -3502,12 +3636,12 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
-      <c r="B112" s="117" t="s">
+      <c r="B112" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="C112" s="118"/>
-      <c r="D112" s="118"/>
-      <c r="E112" s="119"/>
+      <c r="C112" s="95"/>
+      <c r="D112" s="95"/>
+      <c r="E112" s="96"/>
       <c r="F112" s="77">
         <v>910000</v>
       </c>
@@ -3518,45 +3652,45 @@
       <c r="K112" s="14"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="117" t="s">
+      <c r="B113" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C113" s="118"/>
-      <c r="D113" s="118"/>
-      <c r="E113" s="119"/>
+      <c r="C113" s="95"/>
+      <c r="D113" s="95"/>
+      <c r="E113" s="96"/>
       <c r="F113" s="77">
         <v>300000</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="117" t="s">
+      <c r="B114" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="C114" s="118"/>
-      <c r="D114" s="118"/>
-      <c r="E114" s="119"/>
+      <c r="C114" s="95"/>
+      <c r="D114" s="95"/>
+      <c r="E114" s="96"/>
       <c r="F114" s="77">
         <v>235000</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="117" t="s">
+      <c r="B115" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="C115" s="118"/>
-      <c r="D115" s="118"/>
-      <c r="E115" s="119"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="96"/>
       <c r="F115" s="77">
         <v>2223000</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="120" t="s">
+      <c r="B116" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="121"/>
-      <c r="D116" s="121"/>
-      <c r="E116" s="122"/>
+      <c r="C116" s="98"/>
+      <c r="D116" s="98"/>
+      <c r="E116" s="99"/>
       <c r="F116" s="79">
         <f>SUM(F110:F115)</f>
         <v>7389000</v>
@@ -3594,34 +3728,11 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="L74:L76"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A3:L3"/>
@@ -3638,13 +3749,525 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:E113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="130" customWidth="1"/>
+    <col min="2" max="2" width="7" style="130" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="130" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="130"/>
+    <col min="5" max="5" width="11.125" style="132" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="132" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="130"/>
+    <col min="8" max="8" width="9" style="133"/>
+    <col min="9" max="9" width="12.625" style="132" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="132" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="132"/>
+    <col min="12" max="16384" width="9" style="130"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="129"/>
+      <c r="L6" s="110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="112"/>
+      <c r="I7" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="110"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="110"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="153">
+        <v>44166</v>
+      </c>
+      <c r="B9" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="136">
+        <v>1</v>
+      </c>
+      <c r="E9" s="137">
+        <v>225000</v>
+      </c>
+      <c r="F9" s="137">
+        <f>D9*E9</f>
+        <v>225000</v>
+      </c>
+      <c r="G9" s="136"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="137">
+        <f>E9</f>
+        <v>225000</v>
+      </c>
+      <c r="J9" s="137">
+        <f>I9</f>
+        <v>225000</v>
+      </c>
+      <c r="K9" s="137"/>
+      <c r="L9" s="136"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="153">
+        <v>44168</v>
+      </c>
+      <c r="B10" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="136" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="136">
+        <v>1</v>
+      </c>
+      <c r="E10" s="137">
+        <v>235000</v>
+      </c>
+      <c r="F10" s="137">
+        <f>D10*E10</f>
+        <v>235000</v>
+      </c>
+      <c r="G10" s="136"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="137">
+        <f>F10</f>
+        <v>235000</v>
+      </c>
+      <c r="J10" s="137">
+        <f>I10</f>
+        <v>235000</v>
+      </c>
+      <c r="K10" s="137"/>
+      <c r="L10" s="136"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="153">
+        <v>44170</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="136">
+        <v>4</v>
+      </c>
+      <c r="E11" s="137">
+        <v>485000</v>
+      </c>
+      <c r="F11" s="137">
+        <f>D11*E11</f>
+        <v>1940000</v>
+      </c>
+      <c r="G11" s="136"/>
+      <c r="H11" s="138">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="137">
+        <f>F11*(1-H11)</f>
+        <v>1843000</v>
+      </c>
+      <c r="J11" s="137">
+        <f>I11</f>
+        <v>1843000</v>
+      </c>
+      <c r="K11" s="137"/>
+      <c r="L11" s="136"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="153">
+        <v>44171</v>
+      </c>
+      <c r="B12" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="136">
+        <v>1</v>
+      </c>
+      <c r="E12" s="137">
+        <v>190000</v>
+      </c>
+      <c r="F12" s="137">
+        <f>D12*E12</f>
+        <v>190000</v>
+      </c>
+      <c r="G12" s="136"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="137">
+        <f>F12</f>
+        <v>190000</v>
+      </c>
+      <c r="J12" s="137">
+        <f>I12</f>
+        <v>190000</v>
+      </c>
+      <c r="K12" s="137"/>
+      <c r="L12" s="136"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="154">
+        <v>44172</v>
+      </c>
+      <c r="B13" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="142">
+        <v>1</v>
+      </c>
+      <c r="E13" s="143">
+        <v>255000</v>
+      </c>
+      <c r="F13" s="143">
+        <f>D13*E13</f>
+        <v>255000</v>
+      </c>
+      <c r="G13" s="142"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="143">
+        <f>F13</f>
+        <v>255000</v>
+      </c>
+      <c r="J13" s="143">
+        <f>I13</f>
+        <v>255000</v>
+      </c>
+      <c r="K13" s="143"/>
+      <c r="L13" s="157" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="155"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="146">
+        <v>1</v>
+      </c>
+      <c r="E14" s="147">
+        <v>225000</v>
+      </c>
+      <c r="F14" s="147">
+        <f>D14*E14</f>
+        <v>225000</v>
+      </c>
+      <c r="G14" s="146"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="147">
+        <f>F14</f>
+        <v>225000</v>
+      </c>
+      <c r="J14" s="147">
+        <f>I14</f>
+        <v>225000</v>
+      </c>
+      <c r="K14" s="147"/>
+      <c r="L14" s="158"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="156"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="150">
+        <v>1</v>
+      </c>
+      <c r="E15" s="151">
+        <v>225000</v>
+      </c>
+      <c r="F15" s="151">
+        <f>D15*E15</f>
+        <v>225000</v>
+      </c>
+      <c r="G15" s="150"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="151">
+        <f>F15</f>
+        <v>225000</v>
+      </c>
+      <c r="J15" s="151">
+        <f>I15</f>
+        <v>225000</v>
+      </c>
+      <c r="K15" s="151"/>
+      <c r="L15" s="159"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="131">
+        <v>44173</v>
+      </c>
+      <c r="B16" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="130">
+        <v>1</v>
+      </c>
+      <c r="E16" s="132">
+        <v>455000</v>
+      </c>
+      <c r="F16" s="132">
+        <f>D16*E16</f>
+        <v>455000</v>
+      </c>
+      <c r="I16" s="132">
+        <f>F16</f>
+        <v>455000</v>
+      </c>
+      <c r="J16" s="132">
+        <f>I16</f>
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="139"/>
+      <c r="C17" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="130">
+        <v>1</v>
+      </c>
+      <c r="E17" s="132">
+        <v>455000</v>
+      </c>
+      <c r="F17" s="132">
+        <f>D17*E17</f>
+        <v>455000</v>
+      </c>
+      <c r="I17" s="132">
+        <f>F17</f>
+        <v>455000</v>
+      </c>
+      <c r="J17" s="132">
+        <f>I17</f>
+        <v>455000</v>
+      </c>
+      <c r="L17" s="130" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ TOÁN - THÁI HẰNG\HangWorkspace\KẾ TOÁN - THÁI HẰNG\SHOWROOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HangWorkspace\KẾ TOÁN - THÁI HẰNG\SHOWROOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Tháng 11_2020" sheetId="1" r:id="rId1"/>
     <sheet name="Tháng 12_2020" sheetId="2" r:id="rId2"/>
+    <sheet name="Tháng 1_2021" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="108">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -256,6 +257,99 @@
   </si>
   <si>
     <t>Tặng mũ</t>
+  </si>
+  <si>
+    <t>Grow2</t>
+  </si>
+  <si>
+    <t>Ensuregold</t>
+  </si>
+  <si>
+    <t>Merries XL</t>
+  </si>
+  <si>
+    <t>Bobby dán S</t>
+  </si>
+  <si>
+    <t>Monny XL</t>
+  </si>
+  <si>
+    <t>Nan nga 4</t>
+  </si>
+  <si>
+    <t>Merries M</t>
+  </si>
+  <si>
+    <t>Friso nga 3</t>
+  </si>
+  <si>
+    <t>Bột cà rốt</t>
+  </si>
+  <si>
+    <t>Optimum3</t>
+  </si>
+  <si>
+    <t>Ensure</t>
+  </si>
+  <si>
+    <t>Pediasure Mỹ</t>
+  </si>
+  <si>
+    <t>Ti ngậm</t>
+  </si>
+  <si>
+    <t>Meije 1-3</t>
+  </si>
+  <si>
+    <t>Tặng gấu</t>
+  </si>
+  <si>
+    <t>Tồn tháng 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng tiền </t>
+  </si>
+  <si>
+    <t>- Tổng doanh thu showroom tháng 12 là : 20,406,550 + 4,897,000 (tồn T11) = 25,303,550, trong đó:</t>
+  </si>
+  <si>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>Anh Lâm thu tiền mặt/CK từ khách</t>
+  </si>
+  <si>
+    <t>Tiền hàng cá nhân chị thơm Anh Lâm thu bằng TM từ đơn hàng công ty</t>
+  </si>
+  <si>
+    <t>Anh Lâm lấy bằng TM hoặc CK</t>
+  </si>
+  <si>
+    <t>Đi chợ</t>
+  </si>
+  <si>
+    <t>Vận chuyển gửi hàng</t>
+  </si>
+  <si>
+    <t>Hương hoa</t>
+  </si>
+  <si>
+    <t>Văn phòng phẩm</t>
+  </si>
+  <si>
+    <t>Chi phí khác</t>
+  </si>
+  <si>
+    <t>Tháng 1/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:12021/DTSR. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>- Số tiền còn lại: 25,303,550 - 24,695,550 = 608,000</t>
+  </si>
+  <si>
+    <t>- Số tiền Hoa hồng của chị Thơm HC (Chưa thanh toán, Cộng vào tiền thưởng (Bảng lương): 31h Nanomilk * 50.000 + 10h sữa ngoại trừ vinamilk và bỉm*10,000= 1,650,000</t>
   </si>
 </sst>
 </file>
@@ -263,12 +357,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,6 +487,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -414,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -582,34 +683,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -618,10 +710,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,45 +723,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,9 +771,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -693,8 +785,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -704,33 +796,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,32 +832,32 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,170 +867,311 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -948,14 +1181,14 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1242,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1292,122 +1525,122 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
+      <c r="A4" s="173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="111" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="110" t="s">
+      <c r="K6" s="165"/>
+      <c r="L6" s="164" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109" t="s">
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="113" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="113" t="s">
+      <c r="J7" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="113" t="s">
+      <c r="K7" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="110"/>
+      <c r="L7" s="164"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
       <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="110"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="164"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="57">
@@ -1476,10 +1709,10 @@
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116">
+      <c r="A11" s="170">
         <v>44142</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="168" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1511,8 +1744,8 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
@@ -1541,8 +1774,8 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="171"/>
+      <c r="B13" s="169"/>
       <c r="C13" s="22" t="s">
         <v>26</v>
       </c>
@@ -1572,10 +1805,10 @@
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="101">
+      <c r="A14" s="155">
         <v>44142</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="158" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -1607,8 +1840,8 @@
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="101"/>
-      <c r="B15" s="104"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
@@ -1638,8 +1871,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
@@ -1669,10 +1902,10 @@
       <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="116">
+      <c r="A17" s="170">
         <v>44143</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="168" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1704,8 +1937,8 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="101"/>
-      <c r="B18" s="104"/>
+      <c r="A18" s="155"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
@@ -1733,8 +1966,8 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="101"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="155"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
@@ -1764,8 +1997,8 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="101"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="17" t="s">
         <v>24</v>
       </c>
@@ -1797,8 +2030,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="101"/>
-      <c r="B21" s="104"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="17" t="s">
         <v>30</v>
       </c>
@@ -1826,8 +2059,8 @@
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="117"/>
-      <c r="B22" s="115"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="22" t="s">
         <v>31</v>
       </c>
@@ -1855,10 +2088,10 @@
       <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="123">
+      <c r="A23" s="177">
         <v>44144</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="175" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1890,8 +2123,8 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="124"/>
-      <c r="B24" s="122"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="20" t="s">
         <v>33</v>
       </c>
@@ -1919,10 +2152,10 @@
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="116">
+      <c r="A25" s="170">
         <v>44146</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="168" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="60" t="s">
@@ -1952,8 +2185,8 @@
       <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="101"/>
-      <c r="B26" s="104"/>
+      <c r="A26" s="155"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="60" t="s">
         <v>37</v>
       </c>
@@ -1981,8 +2214,8 @@
       <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="101"/>
-      <c r="B27" s="104"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="60" t="s">
         <v>38</v>
       </c>
@@ -2007,13 +2240,13 @@
         <v>550000</v>
       </c>
       <c r="K27" s="54"/>
-      <c r="L27" s="103" t="s">
+      <c r="L27" s="157" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="102"/>
-      <c r="B28" s="105"/>
+      <c r="A28" s="156"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="60" t="s">
         <v>39</v>
       </c>
@@ -2038,7 +2271,7 @@
         <v>225000</v>
       </c>
       <c r="K28" s="54"/>
-      <c r="L28" s="105"/>
+      <c r="L28" s="159"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
@@ -2074,10 +2307,10 @@
       <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="100">
+      <c r="A30" s="154">
         <v>44149</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="157" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -2107,8 +2340,8 @@
       <c r="L30" s="60"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="102"/>
-      <c r="B31" s="105"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="159"/>
       <c r="C31" s="60" t="s">
         <v>38</v>
       </c>
@@ -2139,10 +2372,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="100">
+      <c r="A32" s="154">
         <v>44151</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="157" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -2172,8 +2405,8 @@
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="101"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="155"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="15" t="s">
         <v>45</v>
       </c>
@@ -2201,8 +2434,8 @@
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="102"/>
-      <c r="B34" s="105"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="15" t="s">
         <v>46</v>
       </c>
@@ -2296,10 +2529,10 @@
       <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="100">
+      <c r="A37" s="154">
         <v>44156</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="157" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -2332,8 +2565,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="102"/>
-      <c r="B38" s="105"/>
+      <c r="A38" s="156"/>
+      <c r="B38" s="159"/>
       <c r="C38" s="15" t="s">
         <v>38</v>
       </c>
@@ -2364,7 +2597,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="100">
+      <c r="A39" s="154">
         <v>44160</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -2397,7 +2630,7 @@
       <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="102"/>
+      <c r="A40" s="156"/>
       <c r="B40" s="15" t="s">
         <v>20</v>
       </c>
@@ -2429,10 +2662,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="100">
+      <c r="A41" s="154">
         <v>44161</v>
       </c>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="157" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -2462,8 +2695,8 @@
       <c r="L41" s="15"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="101"/>
-      <c r="B42" s="104"/>
+      <c r="A42" s="155"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="15" t="s">
         <v>29</v>
       </c>
@@ -2491,8 +2724,8 @@
       <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="101"/>
-      <c r="B43" s="104"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="15" t="s">
         <v>39</v>
       </c>
@@ -2520,8 +2753,8 @@
       <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="101"/>
-      <c r="B44" s="104"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="15" t="s">
         <v>51</v>
       </c>
@@ -2549,8 +2782,8 @@
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="101"/>
-      <c r="B45" s="105"/>
+      <c r="A45" s="155"/>
+      <c r="B45" s="159"/>
       <c r="C45" s="15" t="s">
         <v>26</v>
       </c>
@@ -2580,7 +2813,7 @@
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="102"/>
+      <c r="A46" s="156"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
       </c>
@@ -2679,10 +2912,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="100">
+      <c r="A49" s="154">
         <v>44165</v>
       </c>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="157" t="s">
         <v>27</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -2712,8 +2945,8 @@
       <c r="L49" s="15"/>
     </row>
     <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="101"/>
-      <c r="B50" s="104"/>
+      <c r="A50" s="155"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="15" t="s">
         <v>49</v>
       </c>
@@ -2742,8 +2975,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="101"/>
-      <c r="B51" s="104"/>
+      <c r="A51" s="155"/>
+      <c r="B51" s="158"/>
       <c r="C51" s="15" t="s">
         <v>55</v>
       </c>
@@ -2771,8 +3004,8 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="101"/>
-      <c r="B52" s="104"/>
+      <c r="A52" s="155"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -2801,8 +3034,8 @@
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="102"/>
-      <c r="B53" s="105"/>
+      <c r="A53" s="156"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="15" t="s">
         <v>21</v>
       </c>
@@ -3010,7 +3243,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
-      <c r="L66" s="106"/>
+      <c r="L66" s="160"/>
     </row>
     <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
@@ -3024,7 +3257,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
-      <c r="L67" s="106"/>
+      <c r="L67" s="160"/>
     </row>
     <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
@@ -3038,7 +3271,7 @@
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
-      <c r="L68" s="106"/>
+      <c r="L68" s="160"/>
     </row>
     <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
@@ -3052,7 +3285,7 @@
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18"/>
-      <c r="L69" s="106"/>
+      <c r="L69" s="160"/>
     </row>
     <row r="70" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
@@ -3066,7 +3299,7 @@
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
       <c r="K70" s="18"/>
-      <c r="L70" s="106"/>
+      <c r="L70" s="160"/>
     </row>
     <row r="71" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
@@ -3080,7 +3313,7 @@
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
-      <c r="L71" s="106"/>
+      <c r="L71" s="160"/>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
@@ -3122,7 +3355,7 @@
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
-      <c r="L74" s="106"/>
+      <c r="L74" s="160"/>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
@@ -3136,7 +3369,7 @@
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
       <c r="K75" s="18"/>
-      <c r="L75" s="106"/>
+      <c r="L75" s="160"/>
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
@@ -3150,7 +3383,7 @@
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="K76" s="18"/>
-      <c r="L76" s="106"/>
+      <c r="L76" s="160"/>
     </row>
     <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
@@ -3517,11 +3750,11 @@
       <c r="L102" s="22"/>
     </row>
     <row r="103" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="107" t="s">
+      <c r="A103" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
+      <c r="B103" s="161"/>
+      <c r="C103" s="161"/>
       <c r="D103" s="39">
         <f>SUM(D9:D102)</f>
         <v>48</v>
@@ -3612,23 +3845,23 @@
       <c r="F109" s="80"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="94" t="s">
+      <c r="B110" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="C110" s="95"/>
-      <c r="D110" s="95"/>
-      <c r="E110" s="96"/>
+      <c r="C110" s="149"/>
+      <c r="D110" s="149"/>
+      <c r="E110" s="150"/>
       <c r="F110" s="77">
         <v>3000000</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="94" t="s">
+      <c r="B111" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="95"/>
-      <c r="D111" s="95"/>
-      <c r="E111" s="96"/>
+      <c r="C111" s="149"/>
+      <c r="D111" s="149"/>
+      <c r="E111" s="150"/>
       <c r="F111" s="77">
         <v>721000</v>
       </c>
@@ -3636,12 +3869,12 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
-      <c r="B112" s="94" t="s">
+      <c r="B112" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="C112" s="95"/>
-      <c r="D112" s="95"/>
-      <c r="E112" s="96"/>
+      <c r="C112" s="149"/>
+      <c r="D112" s="149"/>
+      <c r="E112" s="150"/>
       <c r="F112" s="77">
         <v>910000</v>
       </c>
@@ -3652,45 +3885,45 @@
       <c r="K112" s="14"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="94" t="s">
+      <c r="B113" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C113" s="95"/>
-      <c r="D113" s="95"/>
-      <c r="E113" s="96"/>
+      <c r="C113" s="149"/>
+      <c r="D113" s="149"/>
+      <c r="E113" s="150"/>
       <c r="F113" s="77">
         <v>300000</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="94" t="s">
+      <c r="B114" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="C114" s="95"/>
-      <c r="D114" s="95"/>
-      <c r="E114" s="96"/>
+      <c r="C114" s="149"/>
+      <c r="D114" s="149"/>
+      <c r="E114" s="150"/>
       <c r="F114" s="77">
         <v>235000</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="94" t="s">
+      <c r="B115" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="C115" s="95"/>
-      <c r="D115" s="95"/>
-      <c r="E115" s="96"/>
+      <c r="C115" s="149"/>
+      <c r="D115" s="149"/>
+      <c r="E115" s="150"/>
       <c r="F115" s="77">
         <v>2223000</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="97" t="s">
+      <c r="B116" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="98"/>
-      <c r="D116" s="98"/>
-      <c r="E116" s="99"/>
+      <c r="C116" s="152"/>
+      <c r="D116" s="152"/>
+      <c r="E116" s="153"/>
       <c r="F116" s="79">
         <f>SUM(F110:F115)</f>
         <v>7389000</v>
@@ -3785,26 +4018,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="130" customWidth="1"/>
-    <col min="2" max="2" width="7" style="130" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="130" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="130"/>
-    <col min="5" max="5" width="11.125" style="132" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="132" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="130"/>
-    <col min="8" max="8" width="9" style="133"/>
-    <col min="9" max="9" width="12.625" style="132" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="132" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="132"/>
-    <col min="12" max="16384" width="9" style="130"/>
+    <col min="1" max="1" width="8.125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="7" style="97" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="103" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="98" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="98"/>
+    <col min="12" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3813,14 +4046,14 @@
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="127"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3829,427 +4062,2026 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="128"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="129" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="129"/>
-      <c r="L6" s="110" t="s">
+      <c r="K6" s="212"/>
+      <c r="L6" s="164" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="108"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109" t="s">
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="126" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="126" t="s">
+      <c r="J7" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="126" t="s">
+      <c r="K7" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="110"/>
+      <c r="L7" s="164"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="108"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="93" t="s">
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="94" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="110"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="209"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="164"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="153">
+      <c r="A9" s="113">
         <v>44166</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="136">
-        <v>1</v>
-      </c>
-      <c r="E9" s="137">
+      <c r="D9" s="121">
+        <v>1</v>
+      </c>
+      <c r="E9" s="101">
         <v>225000</v>
       </c>
-      <c r="F9" s="137">
-        <f>D9*E9</f>
+      <c r="F9" s="101">
+        <f t="shared" ref="F9:F54" si="0">D9*E9</f>
         <v>225000</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="137">
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="101">
         <f>E9</f>
         <v>225000</v>
       </c>
-      <c r="J9" s="137">
-        <f>I9</f>
+      <c r="J9" s="101">
+        <f t="shared" ref="J9:J19" si="1">I9</f>
         <v>225000</v>
       </c>
-      <c r="K9" s="137"/>
-      <c r="L9" s="136"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="100"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="153">
+      <c r="A10" s="113">
         <v>44168</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="136">
-        <v>1</v>
-      </c>
-      <c r="E10" s="137">
+      <c r="D10" s="121">
+        <v>1</v>
+      </c>
+      <c r="E10" s="101">
         <v>235000</v>
       </c>
-      <c r="F10" s="137">
-        <f>D10*E10</f>
+      <c r="F10" s="101">
+        <f t="shared" si="0"/>
         <v>235000</v>
       </c>
-      <c r="G10" s="136"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="137">
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="101">
         <f>F10</f>
         <v>235000</v>
       </c>
-      <c r="J10" s="137">
-        <f>I10</f>
+      <c r="J10" s="101">
+        <f t="shared" si="1"/>
         <v>235000</v>
       </c>
-      <c r="K10" s="137"/>
-      <c r="L10" s="136"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="100"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="153">
+      <c r="A11" s="113">
+        <v>44169</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="121">
+        <v>1</v>
+      </c>
+      <c r="E11" s="101">
+        <v>455000</v>
+      </c>
+      <c r="F11" s="101">
+        <f>D11*E11</f>
+        <v>455000</v>
+      </c>
+      <c r="G11" s="101"/>
+      <c r="H11" s="102">
+        <v>0.41</v>
+      </c>
+      <c r="I11" s="101">
+        <f>F11*(1-H11)</f>
+        <v>268450.00000000006</v>
+      </c>
+      <c r="J11" s="101">
+        <f>I11</f>
+        <v>268450.00000000006</v>
+      </c>
+      <c r="K11" s="101"/>
+      <c r="L11" s="100"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="191">
         <v>44170</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B12" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C12" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="136">
+      <c r="D12" s="122">
         <v>4</v>
       </c>
-      <c r="E11" s="137">
+      <c r="E12" s="105">
         <v>485000</v>
       </c>
-      <c r="F11" s="137">
-        <f>D11*E11</f>
+      <c r="F12" s="105">
+        <f t="shared" si="0"/>
         <v>1940000</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="138">
+      <c r="G12" s="105"/>
+      <c r="H12" s="106">
         <v>0.05</v>
       </c>
-      <c r="I11" s="137">
-        <f>F11*(1-H11)</f>
+      <c r="I12" s="105">
+        <f>F12*(1-H12)</f>
         <v>1843000</v>
       </c>
-      <c r="J11" s="137">
-        <f>I11</f>
+      <c r="J12" s="105">
+        <f t="shared" si="1"/>
         <v>1843000</v>
       </c>
-      <c r="K11" s="137"/>
-      <c r="L11" s="136"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="153">
+      <c r="K12" s="105"/>
+      <c r="L12" s="104"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="192"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="124">
+        <v>1</v>
+      </c>
+      <c r="E13" s="111">
+        <v>455000</v>
+      </c>
+      <c r="F13" s="111">
+        <f t="shared" si="0"/>
+        <v>455000</v>
+      </c>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112">
+        <v>0.41</v>
+      </c>
+      <c r="I13" s="111">
+        <f>F13*(1-H13)</f>
+        <v>268450.00000000006</v>
+      </c>
+      <c r="J13" s="111">
+        <f>I13</f>
+        <v>268450.00000000006</v>
+      </c>
+      <c r="K13" s="111"/>
+      <c r="L13" s="110"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="113">
         <v>44171</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B14" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C14" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="136">
-        <v>1</v>
-      </c>
-      <c r="E12" s="137">
+      <c r="D14" s="121">
+        <v>1</v>
+      </c>
+      <c r="E14" s="101">
         <v>190000</v>
       </c>
-      <c r="F12" s="137">
-        <f>D12*E12</f>
+      <c r="F14" s="101">
+        <f t="shared" si="0"/>
         <v>190000</v>
       </c>
-      <c r="G12" s="136"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="137">
-        <f>F12</f>
+      <c r="G14" s="101"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="101">
+        <f t="shared" ref="I14:I19" si="2">F14</f>
         <v>190000</v>
       </c>
-      <c r="J12" s="137">
-        <f>I12</f>
+      <c r="J14" s="101">
+        <f t="shared" si="1"/>
         <v>190000</v>
       </c>
-      <c r="K12" s="137"/>
-      <c r="L12" s="136"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="154">
+      <c r="K14" s="101"/>
+      <c r="L14" s="100"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="213">
         <v>44172</v>
       </c>
-      <c r="B13" s="141" t="s">
+      <c r="B15" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C15" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="142">
-        <v>1</v>
-      </c>
-      <c r="E13" s="143">
+      <c r="D15" s="122">
+        <v>1</v>
+      </c>
+      <c r="E15" s="105">
         <v>255000</v>
       </c>
-      <c r="F13" s="143">
-        <f>D13*E13</f>
+      <c r="F15" s="105">
+        <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-      <c r="G13" s="142"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="143">
-        <f>F13</f>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="105">
+        <f t="shared" si="2"/>
         <v>255000</v>
       </c>
-      <c r="J13" s="143">
-        <f>I13</f>
+      <c r="J15" s="105">
+        <f t="shared" si="1"/>
         <v>255000</v>
       </c>
-      <c r="K13" s="143"/>
-      <c r="L13" s="157" t="s">
+      <c r="K15" s="105"/>
+      <c r="L15" s="114" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="155"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="146" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="214"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="146">
-        <v>1</v>
-      </c>
-      <c r="E14" s="147">
+      <c r="D16" s="123">
+        <v>1</v>
+      </c>
+      <c r="E16" s="108">
         <v>225000</v>
       </c>
-      <c r="F14" s="147">
-        <f>D14*E14</f>
+      <c r="F16" s="108">
+        <f t="shared" si="0"/>
         <v>225000</v>
       </c>
-      <c r="G14" s="146"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="147">
-        <f>F14</f>
+      <c r="G16" s="108"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="108">
+        <f t="shared" si="2"/>
         <v>225000</v>
       </c>
-      <c r="J14" s="147">
-        <f>I14</f>
+      <c r="J16" s="108">
+        <f t="shared" si="1"/>
         <v>225000</v>
       </c>
-      <c r="K14" s="147"/>
-      <c r="L14" s="158"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="156"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="150" t="s">
+      <c r="K16" s="108"/>
+      <c r="L16" s="115"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="215"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="150">
-        <v>1</v>
-      </c>
-      <c r="E15" s="151">
+      <c r="D17" s="124">
+        <v>1</v>
+      </c>
+      <c r="E17" s="111">
         <v>225000</v>
       </c>
-      <c r="F15" s="151">
-        <f>D15*E15</f>
+      <c r="F17" s="111">
+        <f t="shared" si="0"/>
         <v>225000</v>
       </c>
-      <c r="G15" s="150"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="151">
-        <f>F15</f>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="111">
+        <f t="shared" si="2"/>
         <v>225000</v>
       </c>
-      <c r="J15" s="151">
-        <f>I15</f>
+      <c r="J17" s="111">
+        <f t="shared" si="1"/>
         <v>225000</v>
       </c>
-      <c r="K15" s="151"/>
-      <c r="L15" s="159"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="131">
+      <c r="K17" s="111"/>
+      <c r="L17" s="116"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="191">
         <v>44173</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B18" s="216" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C18" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="130">
-        <v>1</v>
-      </c>
-      <c r="E16" s="132">
+      <c r="D18" s="122">
+        <v>1</v>
+      </c>
+      <c r="E18" s="105">
         <v>455000</v>
       </c>
-      <c r="F16" s="132">
-        <f>D16*E16</f>
+      <c r="F18" s="105">
+        <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="I16" s="132">
-        <f>F16</f>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="105">
+        <f t="shared" si="2"/>
         <v>455000</v>
       </c>
-      <c r="J16" s="132">
-        <f>I16</f>
+      <c r="J18" s="105">
+        <f t="shared" si="1"/>
         <v>455000</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="139"/>
-      <c r="C17" s="130" t="s">
+      <c r="K18" s="105"/>
+      <c r="L18" s="104"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="201"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="130">
-        <v>1</v>
-      </c>
-      <c r="E17" s="132">
+      <c r="D19" s="123">
+        <v>1</v>
+      </c>
+      <c r="E19" s="108">
         <v>455000</v>
       </c>
-      <c r="F17" s="132">
-        <f>D17*E17</f>
+      <c r="F19" s="108">
+        <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="I17" s="132">
-        <f>F17</f>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="108">
+        <f t="shared" si="2"/>
         <v>455000</v>
       </c>
-      <c r="J17" s="132">
-        <f>I17</f>
+      <c r="J19" s="108">
+        <f t="shared" si="1"/>
         <v>455000</v>
       </c>
-      <c r="L17" s="130" t="s">
+      <c r="K19" s="108"/>
+      <c r="L19" s="110" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="130" t="s">
-        <v>20</v>
-      </c>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="192"/>
+      <c r="B20" s="218"/>
+      <c r="C20" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="124">
+        <v>4</v>
+      </c>
+      <c r="E20" s="111">
+        <v>255000</v>
+      </c>
+      <c r="F20" s="111">
+        <f t="shared" si="0"/>
+        <v>1020000</v>
+      </c>
+      <c r="G20" s="111">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="112"/>
+      <c r="I20" s="111">
+        <f>F20-G20</f>
+        <v>1000000</v>
+      </c>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111">
+        <f>I20</f>
+        <v>1000000</v>
+      </c>
+      <c r="L20" s="119"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="120">
+        <v>44174</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="121">
+        <v>1</v>
+      </c>
+      <c r="E21" s="101">
+        <v>230000</v>
+      </c>
+      <c r="F21" s="101">
+        <f t="shared" si="0"/>
+        <v>230000</v>
+      </c>
+      <c r="G21" s="101"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="101">
+        <f>F21</f>
+        <v>230000</v>
+      </c>
+      <c r="J21" s="101">
+        <f>I21</f>
+        <v>230000</v>
+      </c>
+      <c r="K21" s="101"/>
+      <c r="L21" s="100"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="206">
+        <v>44175</v>
+      </c>
+      <c r="B22" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="122">
+        <v>2</v>
+      </c>
+      <c r="E22" s="105">
+        <v>550000</v>
+      </c>
+      <c r="F22" s="105">
+        <f t="shared" si="0"/>
+        <v>1100000</v>
+      </c>
+      <c r="G22" s="105">
+        <v>95000</v>
+      </c>
+      <c r="H22" s="106"/>
+      <c r="I22" s="105">
+        <f>F22-G22</f>
+        <v>1005000</v>
+      </c>
+      <c r="J22" s="105">
+        <f>I22</f>
+        <v>1005000</v>
+      </c>
+      <c r="K22" s="105"/>
+      <c r="L22" s="104"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="207"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="123">
+        <v>1</v>
+      </c>
+      <c r="E23" s="108">
+        <v>235000</v>
+      </c>
+      <c r="F23" s="108">
+        <f t="shared" si="0"/>
+        <v>235000</v>
+      </c>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="108">
+        <f>F23</f>
+        <v>235000</v>
+      </c>
+      <c r="J23" s="108">
+        <f>I23</f>
+        <v>235000</v>
+      </c>
+      <c r="K23" s="108"/>
+      <c r="L23" s="107"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="207"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="123">
+        <v>1</v>
+      </c>
+      <c r="E24" s="108">
+        <v>520000</v>
+      </c>
+      <c r="F24" s="108">
+        <f t="shared" si="0"/>
+        <v>520000</v>
+      </c>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="108">
+        <f t="shared" ref="I24:I52" si="3">F24</f>
+        <v>520000</v>
+      </c>
+      <c r="J24" s="108">
+        <f t="shared" ref="J24:J54" si="4">I24</f>
+        <v>520000</v>
+      </c>
+      <c r="K24" s="108"/>
+      <c r="L24" s="107"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="207"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="123">
+        <v>1</v>
+      </c>
+      <c r="E25" s="108">
+        <v>680000</v>
+      </c>
+      <c r="F25" s="108">
+        <f t="shared" si="0"/>
+        <v>680000</v>
+      </c>
+      <c r="G25" s="108"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="108">
+        <f t="shared" si="3"/>
+        <v>680000</v>
+      </c>
+      <c r="J25" s="108">
+        <f>I25</f>
+        <v>680000</v>
+      </c>
+      <c r="K25" s="108"/>
+      <c r="L25" s="107"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="207"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="123">
+        <v>1</v>
+      </c>
+      <c r="E26" s="108">
+        <v>340000</v>
+      </c>
+      <c r="F26" s="108">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="G26" s="108"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="108">
+        <f t="shared" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="J26" s="108">
+        <f t="shared" si="4"/>
+        <v>340000</v>
+      </c>
+      <c r="K26" s="108"/>
+      <c r="L26" s="107"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="207"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="123">
+        <v>3</v>
+      </c>
+      <c r="E27" s="108">
+        <v>455000</v>
+      </c>
+      <c r="F27" s="108">
+        <f t="shared" si="0"/>
+        <v>1365000</v>
+      </c>
+      <c r="G27" s="108"/>
+      <c r="H27" s="109">
+        <v>0.05</v>
+      </c>
+      <c r="I27" s="108">
+        <f>F27*(1-H27)</f>
+        <v>1296750</v>
+      </c>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108">
+        <f>I27</f>
+        <v>1296750</v>
+      </c>
+      <c r="L27" s="107"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="207"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="123">
+        <v>2</v>
+      </c>
+      <c r="E28" s="108">
+        <v>235000</v>
+      </c>
+      <c r="F28" s="108">
+        <f t="shared" si="0"/>
+        <v>470000</v>
+      </c>
+      <c r="G28" s="108"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="108">
+        <f t="shared" si="3"/>
+        <v>470000</v>
+      </c>
+      <c r="J28" s="108">
+        <f t="shared" si="4"/>
+        <v>470000</v>
+      </c>
+      <c r="K28" s="108"/>
+      <c r="L28" s="107"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="207"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="123">
+        <v>1</v>
+      </c>
+      <c r="E29" s="108">
+        <v>455000</v>
+      </c>
+      <c r="F29" s="108">
+        <f t="shared" si="0"/>
+        <v>455000</v>
+      </c>
+      <c r="G29" s="108"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="108">
+        <f t="shared" si="3"/>
+        <v>455000</v>
+      </c>
+      <c r="J29" s="108">
+        <f t="shared" si="4"/>
+        <v>455000</v>
+      </c>
+      <c r="K29" s="108"/>
+      <c r="L29" s="107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="208"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="124">
+        <v>1</v>
+      </c>
+      <c r="E30" s="111">
+        <v>485000</v>
+      </c>
+      <c r="F30" s="111">
+        <f t="shared" si="0"/>
+        <v>485000</v>
+      </c>
+      <c r="G30" s="111"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="111">
+        <f t="shared" si="3"/>
+        <v>485000</v>
+      </c>
+      <c r="J30" s="111">
+        <f t="shared" si="4"/>
+        <v>485000</v>
+      </c>
+      <c r="K30" s="111"/>
+      <c r="L30" s="110" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="191">
+        <v>44178</v>
+      </c>
+      <c r="B31" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="122">
+        <v>2</v>
+      </c>
+      <c r="E31" s="105">
+        <v>465000</v>
+      </c>
+      <c r="F31" s="105">
+        <f t="shared" si="0"/>
+        <v>930000</v>
+      </c>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106">
+        <v>0.05</v>
+      </c>
+      <c r="I31" s="105">
+        <f>F31*(1-H31)</f>
+        <v>883500</v>
+      </c>
+      <c r="J31" s="105">
+        <f t="shared" si="4"/>
+        <v>883500</v>
+      </c>
+      <c r="K31" s="105"/>
+      <c r="L31" s="104"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="192"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="124">
+        <v>1</v>
+      </c>
+      <c r="E32" s="111">
+        <v>380000</v>
+      </c>
+      <c r="F32" s="111">
+        <f t="shared" si="0"/>
+        <v>380000</v>
+      </c>
+      <c r="G32" s="111">
+        <v>20000</v>
+      </c>
+      <c r="H32" s="112"/>
+      <c r="I32" s="111">
+        <f>F32-G32</f>
+        <v>360000</v>
+      </c>
+      <c r="J32" s="111">
+        <f t="shared" si="4"/>
+        <v>360000</v>
+      </c>
+      <c r="K32" s="111"/>
+      <c r="L32" s="110"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="120">
+        <v>44179</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="121">
+        <v>1</v>
+      </c>
+      <c r="E33" s="101">
+        <v>110000</v>
+      </c>
+      <c r="F33" s="101">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+      <c r="G33" s="101"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="101">
+        <f t="shared" si="3"/>
+        <v>110000</v>
+      </c>
+      <c r="J33" s="101">
+        <f t="shared" si="4"/>
+        <v>110000</v>
+      </c>
+      <c r="K33" s="101"/>
+      <c r="L33" s="100"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="120">
+        <v>44180</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="121">
+        <v>1</v>
+      </c>
+      <c r="E34" s="101">
+        <v>350000</v>
+      </c>
+      <c r="F34" s="101">
+        <f t="shared" si="0"/>
+        <v>350000</v>
+      </c>
+      <c r="G34" s="101"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="101">
+        <f t="shared" si="3"/>
+        <v>350000</v>
+      </c>
+      <c r="J34" s="101">
+        <f t="shared" si="4"/>
+        <v>350000</v>
+      </c>
+      <c r="K34" s="101"/>
+      <c r="L34" s="100"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="120">
+        <v>44181</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="121">
+        <v>1</v>
+      </c>
+      <c r="E35" s="101">
+        <v>340000</v>
+      </c>
+      <c r="F35" s="101">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="G35" s="101"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="101">
+        <f t="shared" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="J35" s="101">
+        <f t="shared" si="4"/>
+        <v>340000</v>
+      </c>
+      <c r="K35" s="101"/>
+      <c r="L35" s="100"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="120">
+        <v>44182</v>
+      </c>
+      <c r="B36" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="121">
+        <v>1</v>
+      </c>
+      <c r="E36" s="101">
+        <v>380000</v>
+      </c>
+      <c r="F36" s="101">
+        <f t="shared" si="0"/>
+        <v>380000</v>
+      </c>
+      <c r="G36" s="101"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="101">
+        <f t="shared" si="3"/>
+        <v>380000</v>
+      </c>
+      <c r="J36" s="101">
+        <f t="shared" si="4"/>
+        <v>380000</v>
+      </c>
+      <c r="K36" s="101"/>
+      <c r="L36" s="100"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="120">
+        <v>44183</v>
+      </c>
+      <c r="B37" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="121">
+        <v>1</v>
+      </c>
+      <c r="E37" s="101">
+        <v>340000</v>
+      </c>
+      <c r="F37" s="101">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="G37" s="101"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="101">
+        <f t="shared" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="J37" s="101">
+        <f t="shared" si="4"/>
+        <v>340000</v>
+      </c>
+      <c r="K37" s="101"/>
+      <c r="L37" s="100"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="191">
+        <v>44184</v>
+      </c>
+      <c r="B38" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="122">
+        <v>2</v>
+      </c>
+      <c r="E38" s="105">
+        <v>400000</v>
+      </c>
+      <c r="F38" s="105">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="G38" s="105">
+        <v>30000</v>
+      </c>
+      <c r="H38" s="106"/>
+      <c r="I38" s="105">
+        <f>F38-G38</f>
+        <v>770000</v>
+      </c>
+      <c r="J38" s="105">
+        <f t="shared" si="4"/>
+        <v>770000</v>
+      </c>
+      <c r="K38" s="105"/>
+      <c r="L38" s="104"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="201"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="123">
+        <v>1</v>
+      </c>
+      <c r="E39" s="108">
+        <v>80000</v>
+      </c>
+      <c r="F39" s="108">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="G39" s="108"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="108">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+      <c r="J39" s="108">
+        <f t="shared" si="4"/>
+        <v>80000</v>
+      </c>
+      <c r="K39" s="108"/>
+      <c r="L39" s="107"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="201"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="123">
+        <v>1</v>
+      </c>
+      <c r="E40" s="108">
+        <v>550000</v>
+      </c>
+      <c r="F40" s="108">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+      <c r="G40" s="108"/>
+      <c r="H40" s="109">
+        <v>0.41</v>
+      </c>
+      <c r="I40" s="108">
+        <f>F40*(1-H40)</f>
+        <v>324500.00000000006</v>
+      </c>
+      <c r="J40" s="108">
+        <f t="shared" si="4"/>
+        <v>324500.00000000006</v>
+      </c>
+      <c r="K40" s="108"/>
+      <c r="L40" s="107"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="201"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="123">
+        <v>1</v>
+      </c>
+      <c r="E41" s="108">
+        <v>225000</v>
+      </c>
+      <c r="F41" s="108">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+      <c r="G41" s="108"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="108">
+        <f t="shared" si="3"/>
+        <v>225000</v>
+      </c>
+      <c r="J41" s="108">
+        <f t="shared" si="4"/>
+        <v>225000</v>
+      </c>
+      <c r="K41" s="108"/>
+      <c r="L41" s="107"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="202"/>
+      <c r="B42" s="200"/>
+      <c r="C42" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="133">
+        <v>2</v>
+      </c>
+      <c r="E42" s="134">
+        <v>455000</v>
+      </c>
+      <c r="F42" s="134">
+        <f t="shared" si="0"/>
+        <v>910000</v>
+      </c>
+      <c r="G42" s="134"/>
+      <c r="H42" s="135">
+        <v>0.41</v>
+      </c>
+      <c r="I42" s="134">
+        <f>F42*(1-H42)</f>
+        <v>536900.00000000012</v>
+      </c>
+      <c r="J42" s="134">
+        <f>I42</f>
+        <v>536900.00000000012</v>
+      </c>
+      <c r="K42" s="134"/>
+      <c r="L42" s="132"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="192"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="124">
+        <v>1</v>
+      </c>
+      <c r="E43" s="111">
+        <v>340000</v>
+      </c>
+      <c r="F43" s="111">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="G43" s="111"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="111">
+        <f t="shared" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="J43" s="111">
+        <f t="shared" si="4"/>
+        <v>340000</v>
+      </c>
+      <c r="K43" s="111"/>
+      <c r="L43" s="110"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="120">
+        <v>44185</v>
+      </c>
+      <c r="B44" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="121">
+        <v>1</v>
+      </c>
+      <c r="E44" s="101">
+        <v>360000</v>
+      </c>
+      <c r="F44" s="101">
+        <f t="shared" si="0"/>
+        <v>360000</v>
+      </c>
+      <c r="G44" s="101"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="101">
+        <f t="shared" si="3"/>
+        <v>360000</v>
+      </c>
+      <c r="J44" s="101">
+        <f t="shared" si="4"/>
+        <v>360000</v>
+      </c>
+      <c r="K44" s="101"/>
+      <c r="L44" s="100"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="191">
+        <v>44187</v>
+      </c>
+      <c r="B45" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="122">
+        <v>1</v>
+      </c>
+      <c r="E45" s="105">
+        <v>620000</v>
+      </c>
+      <c r="F45" s="105">
+        <f t="shared" si="0"/>
+        <v>620000</v>
+      </c>
+      <c r="G45" s="105"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="105">
+        <f t="shared" si="3"/>
+        <v>620000</v>
+      </c>
+      <c r="J45" s="105">
+        <f t="shared" si="4"/>
+        <v>620000</v>
+      </c>
+      <c r="K45" s="105"/>
+      <c r="L45" s="104"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="192"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="124">
+        <v>1</v>
+      </c>
+      <c r="E46" s="111">
+        <v>550000</v>
+      </c>
+      <c r="F46" s="111">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+      <c r="G46" s="111"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="111">
+        <f t="shared" si="3"/>
+        <v>550000</v>
+      </c>
+      <c r="J46" s="111">
+        <f t="shared" si="4"/>
+        <v>550000</v>
+      </c>
+      <c r="K46" s="111"/>
+      <c r="L46" s="110"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="191">
+        <v>44190</v>
+      </c>
+      <c r="B47" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="122">
+        <v>1</v>
+      </c>
+      <c r="E47" s="105">
+        <v>465000</v>
+      </c>
+      <c r="F47" s="105">
+        <f t="shared" si="0"/>
+        <v>465000</v>
+      </c>
+      <c r="G47" s="105">
+        <v>25000</v>
+      </c>
+      <c r="H47" s="106"/>
+      <c r="I47" s="105">
+        <f>F47-G47</f>
+        <v>440000</v>
+      </c>
+      <c r="J47" s="105">
+        <f t="shared" si="4"/>
+        <v>440000</v>
+      </c>
+      <c r="K47" s="105"/>
+      <c r="L47" s="104"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="192"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="124">
+        <v>1</v>
+      </c>
+      <c r="E48" s="111">
+        <v>350000</v>
+      </c>
+      <c r="F48" s="111">
+        <f t="shared" si="0"/>
+        <v>350000</v>
+      </c>
+      <c r="G48" s="111"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="111">
+        <f t="shared" si="3"/>
+        <v>350000</v>
+      </c>
+      <c r="J48" s="111">
+        <f t="shared" si="4"/>
+        <v>350000</v>
+      </c>
+      <c r="K48" s="111"/>
+      <c r="L48" s="110"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="191">
+        <v>44193</v>
+      </c>
+      <c r="B49" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="122">
+        <v>1</v>
+      </c>
+      <c r="E49" s="105">
+        <v>30000</v>
+      </c>
+      <c r="F49" s="105">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="G49" s="105"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="105">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="J49" s="105">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="K49" s="105"/>
+      <c r="L49" s="104"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="192"/>
+      <c r="B50" s="198"/>
+      <c r="C50" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="124">
+        <v>1</v>
+      </c>
+      <c r="E50" s="111">
+        <v>40000</v>
+      </c>
+      <c r="F50" s="111">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="G50" s="111"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="111">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="J50" s="111">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+      <c r="K50" s="111"/>
+      <c r="L50" s="110"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="191">
+        <v>44194</v>
+      </c>
+      <c r="B51" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="122">
+        <v>1</v>
+      </c>
+      <c r="E51" s="105">
+        <v>465000</v>
+      </c>
+      <c r="F51" s="105">
+        <f t="shared" si="0"/>
+        <v>465000</v>
+      </c>
+      <c r="G51" s="105"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="105">
+        <f t="shared" si="3"/>
+        <v>465000</v>
+      </c>
+      <c r="J51" s="105">
+        <f t="shared" si="4"/>
+        <v>465000</v>
+      </c>
+      <c r="K51" s="105"/>
+      <c r="L51" s="104" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="192"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="124">
+        <v>1</v>
+      </c>
+      <c r="E52" s="111">
+        <v>340000</v>
+      </c>
+      <c r="F52" s="111">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="G52" s="111"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="111">
+        <f t="shared" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="J52" s="111">
+        <f t="shared" si="4"/>
+        <v>340000</v>
+      </c>
+      <c r="K52" s="111"/>
+      <c r="L52" s="110"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="125">
+        <v>44195</v>
+      </c>
+      <c r="B53" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="122">
+        <v>1</v>
+      </c>
+      <c r="E53" s="105">
+        <v>480000</v>
+      </c>
+      <c r="F53" s="105">
+        <f t="shared" si="0"/>
+        <v>480000</v>
+      </c>
+      <c r="G53" s="105">
+        <v>50000</v>
+      </c>
+      <c r="H53" s="106"/>
+      <c r="I53" s="105">
+        <f>F53-G53</f>
+        <v>430000</v>
+      </c>
+      <c r="J53" s="105">
+        <f t="shared" si="4"/>
+        <v>430000</v>
+      </c>
+      <c r="K53" s="105"/>
+      <c r="L53" s="104"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="126">
+        <v>44196</v>
+      </c>
+      <c r="B54" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="124">
+        <v>1</v>
+      </c>
+      <c r="E54" s="111">
+        <v>380000</v>
+      </c>
+      <c r="F54" s="111">
+        <f t="shared" si="0"/>
+        <v>380000</v>
+      </c>
+      <c r="G54" s="111"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="111">
+        <f>F54</f>
+        <v>380000</v>
+      </c>
+      <c r="J54" s="111">
+        <f t="shared" si="4"/>
+        <v>380000</v>
+      </c>
+      <c r="K54" s="111"/>
+      <c r="L54" s="110"/>
+    </row>
+    <row r="55" spans="1:12" s="131" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="188" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="189"/>
+      <c r="C55" s="190"/>
+      <c r="D55" s="127">
+        <f>SUM(D9:D54)</f>
+        <v>59</v>
+      </c>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128">
+        <f>SUM(G9:G54)</f>
+        <v>240000</v>
+      </c>
+      <c r="H55" s="129"/>
+      <c r="I55" s="128">
+        <f>SUM(I9:I54)</f>
+        <v>20406550</v>
+      </c>
+      <c r="J55" s="128">
+        <f>SUM(J9:J54)</f>
+        <v>18109800</v>
+      </c>
+      <c r="K55" s="128">
+        <f>SUM(K9:K54)</f>
+        <v>2296750</v>
+      </c>
+      <c r="L55" s="130"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="195" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="195"/>
+      <c r="C56" s="195"/>
+      <c r="D56" s="195"/>
+      <c r="E56" s="195"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="136">
+        <v>4897000</v>
+      </c>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="104"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="196" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="196"/>
+      <c r="C57" s="196"/>
+      <c r="D57" s="196"/>
+      <c r="E57" s="196"/>
+      <c r="F57" s="196"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="139"/>
+      <c r="I57" s="138">
+        <f>SUM(I55:I56)</f>
+        <v>25303550</v>
+      </c>
+      <c r="J57" s="140"/>
+      <c r="K57" s="140"/>
+      <c r="L57" s="141"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="74"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="75"/>
+      <c r="B61" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="145">
+        <f>I57</f>
+        <v>25303550</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="75"/>
+      <c r="B62" s="142" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="145">
+        <f>K55</f>
+        <v>2296750</v>
+      </c>
+      <c r="G62" s="182">
+        <v>24695550</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="75"/>
+      <c r="B63" s="185" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="186"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="187"/>
+      <c r="F63" s="145">
+        <f>I11+I13+I40+I42</f>
+        <v>1398300.0000000005</v>
+      </c>
+      <c r="G63" s="183"/>
+      <c r="J63" s="146"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="180"/>
+      <c r="D64" s="180"/>
+      <c r="E64" s="181"/>
+      <c r="F64" s="145">
+        <v>16160000</v>
+      </c>
+      <c r="G64" s="183"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="97"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="143"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="145">
+        <v>3230000</v>
+      </c>
+      <c r="G65" s="183"/>
+      <c r="J65" s="146"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="142" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="143"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="145">
+        <v>829000</v>
+      </c>
+      <c r="G66" s="183"/>
+      <c r="J66" s="146"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="179" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="180"/>
+      <c r="D67" s="180"/>
+      <c r="E67" s="181"/>
+      <c r="F67" s="145">
+        <v>288000</v>
+      </c>
+      <c r="G67" s="183"/>
+      <c r="J67" s="146"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="144"/>
+      <c r="F68" s="145">
+        <v>79000</v>
+      </c>
+      <c r="G68" s="183"/>
+      <c r="J68" s="146"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="179" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="180"/>
+      <c r="D69" s="180"/>
+      <c r="E69" s="181"/>
+      <c r="F69" s="145">
+        <v>1628000</v>
+      </c>
+      <c r="G69" s="184"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="K72" s="97"/>
+      <c r="L72" s="147"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K74" s="97"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K75" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
+  <mergeCells count="44">
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="G62:G69"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B67:E67"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="210" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="211" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="174"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="212" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="212"/>
+      <c r="L6" s="164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="209" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="166" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="166"/>
+      <c r="I7" s="209" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="209" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="209" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="164"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="209"/>
+      <c r="J8" s="209"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="164"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
@@ -4268,6 +6100,5 @@
     <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HangWorkspace\KẾ TOÁN - THÁI HẰNG\SHOWROOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ TOÁN - THÁI HẰNG\HangWorkspace\KẾ TOÁN - THÁI HẰNG\SHOWROOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>- Số tiền Hoa hồng của chị Thơm HC (Chưa thanh toán, Cộng vào tiền thưởng (Bảng lương): 31h Nanomilk * 50.000 + 10h sữa ngoại trừ vinamilk và bỉm*10,000= 1,650,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -686,22 +689,22 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -710,10 +713,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,45 +726,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,9 +774,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -785,8 +788,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -796,33 +799,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,32 +835,32 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,48 +870,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -925,7 +928,7 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -947,7 +950,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -955,13 +958,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -972,11 +975,86 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -995,79 +1073,97 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,13 +1175,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,99 +1193,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1525,122 +1533,122 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="173" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
+      <c r="A4" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="165" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="165"/>
-      <c r="L6" s="164" t="s">
+      <c r="K6" s="169"/>
+      <c r="L6" s="168" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163" t="s">
+      <c r="A7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="167" t="s">
+      <c r="E7" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167" t="s">
+      <c r="H7" s="170"/>
+      <c r="I7" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="167" t="s">
+      <c r="J7" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="167" t="s">
+      <c r="K7" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="164"/>
+      <c r="L7" s="168"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
       <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="164"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="168"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="57">
@@ -1709,10 +1717,10 @@
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="170">
+      <c r="A11" s="153">
         <v>44142</v>
       </c>
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="150" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1744,8 +1752,8 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="155"/>
-      <c r="B12" s="158"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
@@ -1774,8 +1782,8 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="171"/>
-      <c r="B13" s="169"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="22" t="s">
         <v>26</v>
       </c>
@@ -1805,10 +1813,10 @@
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="155">
+      <c r="A14" s="148">
         <v>44142</v>
       </c>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="151" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -1840,8 +1848,8 @@
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="155"/>
-      <c r="B15" s="158"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1879,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="171"/>
-      <c r="B16" s="169"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
@@ -1902,10 +1910,10 @@
       <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="170">
+      <c r="A17" s="153">
         <v>44143</v>
       </c>
-      <c r="B17" s="168" t="s">
+      <c r="B17" s="150" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1937,8 +1945,8 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="155"/>
-      <c r="B18" s="158"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
@@ -1966,8 +1974,8 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="155"/>
-      <c r="B19" s="158"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="151"/>
       <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
@@ -1997,8 +2005,8 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="155"/>
-      <c r="B20" s="158"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="17" t="s">
         <v>24</v>
       </c>
@@ -2030,8 +2038,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155"/>
-      <c r="B21" s="158"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="17" t="s">
         <v>30</v>
       </c>
@@ -2059,8 +2067,8 @@
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="171"/>
-      <c r="B22" s="169"/>
+      <c r="A22" s="149"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="22" t="s">
         <v>31</v>
       </c>
@@ -2088,10 +2096,10 @@
       <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="177">
+      <c r="A23" s="156">
         <v>44144</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="154" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2123,8 +2131,8 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="178"/>
-      <c r="B24" s="176"/>
+      <c r="A24" s="157"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="20" t="s">
         <v>33</v>
       </c>
@@ -2152,10 +2160,10 @@
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="170">
+      <c r="A25" s="153">
         <v>44146</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="150" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="60" t="s">
@@ -2185,8 +2193,8 @@
       <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155"/>
-      <c r="B26" s="158"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="60" t="s">
         <v>37</v>
       </c>
@@ -2214,8 +2222,8 @@
       <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="155"/>
-      <c r="B27" s="158"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="60" t="s">
         <v>38</v>
       </c>
@@ -2240,13 +2248,13 @@
         <v>550000</v>
       </c>
       <c r="K27" s="54"/>
-      <c r="L27" s="157" t="s">
+      <c r="L27" s="162" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="156"/>
-      <c r="B28" s="159"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="163"/>
       <c r="C28" s="60" t="s">
         <v>39</v>
       </c>
@@ -2271,7 +2279,7 @@
         <v>225000</v>
       </c>
       <c r="K28" s="54"/>
-      <c r="L28" s="159"/>
+      <c r="L28" s="163"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
@@ -2307,10 +2315,10 @@
       <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="154">
+      <c r="A30" s="165">
         <v>44149</v>
       </c>
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="162" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -2340,8 +2348,8 @@
       <c r="L30" s="60"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="156"/>
-      <c r="B31" s="159"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="163"/>
       <c r="C31" s="60" t="s">
         <v>38</v>
       </c>
@@ -2372,10 +2380,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="154">
+      <c r="A32" s="165">
         <v>44151</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="162" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -2405,8 +2413,8 @@
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="155"/>
-      <c r="B33" s="158"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="15" t="s">
         <v>45</v>
       </c>
@@ -2434,8 +2442,8 @@
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="156"/>
-      <c r="B34" s="159"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="15" t="s">
         <v>46</v>
       </c>
@@ -2529,10 +2537,10 @@
       <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="154">
+      <c r="A37" s="165">
         <v>44156</v>
       </c>
-      <c r="B37" s="157" t="s">
+      <c r="B37" s="162" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -2565,8 +2573,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="156"/>
-      <c r="B38" s="159"/>
+      <c r="A38" s="164"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="15" t="s">
         <v>38</v>
       </c>
@@ -2597,7 +2605,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="154">
+      <c r="A39" s="165">
         <v>44160</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -2630,7 +2638,7 @@
       <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="156"/>
+      <c r="A40" s="164"/>
       <c r="B40" s="15" t="s">
         <v>20</v>
       </c>
@@ -2662,10 +2670,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="154">
+      <c r="A41" s="165">
         <v>44161</v>
       </c>
-      <c r="B41" s="157" t="s">
+      <c r="B41" s="162" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -2695,8 +2703,8 @@
       <c r="L41" s="15"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="155"/>
-      <c r="B42" s="158"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="15" t="s">
         <v>29</v>
       </c>
@@ -2724,8 +2732,8 @@
       <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="155"/>
-      <c r="B43" s="158"/>
+      <c r="A43" s="148"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="15" t="s">
         <v>39</v>
       </c>
@@ -2753,8 +2761,8 @@
       <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="155"/>
-      <c r="B44" s="158"/>
+      <c r="A44" s="148"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="15" t="s">
         <v>51</v>
       </c>
@@ -2782,8 +2790,8 @@
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="155"/>
-      <c r="B45" s="159"/>
+      <c r="A45" s="148"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="15" t="s">
         <v>26</v>
       </c>
@@ -2813,7 +2821,7 @@
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="156"/>
+      <c r="A46" s="164"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
       </c>
@@ -2912,10 +2920,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="154">
+      <c r="A49" s="165">
         <v>44165</v>
       </c>
-      <c r="B49" s="157" t="s">
+      <c r="B49" s="162" t="s">
         <v>27</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -2945,8 +2953,8 @@
       <c r="L49" s="15"/>
     </row>
     <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="155"/>
-      <c r="B50" s="158"/>
+      <c r="A50" s="148"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="15" t="s">
         <v>49</v>
       </c>
@@ -2975,8 +2983,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="155"/>
-      <c r="B51" s="158"/>
+      <c r="A51" s="148"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="15" t="s">
         <v>55</v>
       </c>
@@ -3004,8 +3012,8 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="155"/>
-      <c r="B52" s="158"/>
+      <c r="A52" s="148"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -3034,8 +3042,8 @@
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="156"/>
-      <c r="B53" s="159"/>
+      <c r="A53" s="164"/>
+      <c r="B53" s="163"/>
       <c r="C53" s="15" t="s">
         <v>21</v>
       </c>
@@ -3750,11 +3758,11 @@
       <c r="L102" s="22"/>
     </row>
     <row r="103" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="161" t="s">
+      <c r="A103" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="161"/>
-      <c r="C103" s="161"/>
+      <c r="B103" s="172"/>
+      <c r="C103" s="172"/>
       <c r="D103" s="39">
         <f>SUM(D9:D102)</f>
         <v>48</v>
@@ -3845,23 +3853,23 @@
       <c r="F109" s="80"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="148" t="s">
+      <c r="B110" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="C110" s="149"/>
-      <c r="D110" s="149"/>
-      <c r="E110" s="150"/>
+      <c r="C110" s="174"/>
+      <c r="D110" s="174"/>
+      <c r="E110" s="175"/>
       <c r="F110" s="77">
         <v>3000000</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="148" t="s">
+      <c r="B111" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="149"/>
-      <c r="D111" s="149"/>
-      <c r="E111" s="150"/>
+      <c r="C111" s="174"/>
+      <c r="D111" s="174"/>
+      <c r="E111" s="175"/>
       <c r="F111" s="77">
         <v>721000</v>
       </c>
@@ -3869,12 +3877,12 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
-      <c r="B112" s="148" t="s">
+      <c r="B112" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="C112" s="149"/>
-      <c r="D112" s="149"/>
-      <c r="E112" s="150"/>
+      <c r="C112" s="174"/>
+      <c r="D112" s="174"/>
+      <c r="E112" s="175"/>
       <c r="F112" s="77">
         <v>910000</v>
       </c>
@@ -3885,45 +3893,45 @@
       <c r="K112" s="14"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="148" t="s">
+      <c r="B113" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="C113" s="149"/>
-      <c r="D113" s="149"/>
-      <c r="E113" s="150"/>
+      <c r="C113" s="174"/>
+      <c r="D113" s="174"/>
+      <c r="E113" s="175"/>
       <c r="F113" s="77">
         <v>300000</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="148" t="s">
+      <c r="B114" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="C114" s="149"/>
-      <c r="D114" s="149"/>
-      <c r="E114" s="150"/>
+      <c r="C114" s="174"/>
+      <c r="D114" s="174"/>
+      <c r="E114" s="175"/>
       <c r="F114" s="77">
         <v>235000</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="148" t="s">
+      <c r="B115" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="C115" s="149"/>
-      <c r="D115" s="149"/>
-      <c r="E115" s="150"/>
+      <c r="C115" s="174"/>
+      <c r="D115" s="174"/>
+      <c r="E115" s="175"/>
       <c r="F115" s="77">
         <v>2223000</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="151" t="s">
+      <c r="B116" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="152"/>
-      <c r="D116" s="152"/>
-      <c r="E116" s="153"/>
+      <c r="C116" s="177"/>
+      <c r="D116" s="177"/>
+      <c r="E116" s="178"/>
       <c r="F116" s="79">
         <f>SUM(F110:F115)</f>
         <v>7389000</v>
@@ -3961,11 +3969,34 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A3:L3"/>
@@ -3982,34 +4013,11 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="L74:L76"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4020,8 +4028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4073,122 +4081,122 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="174"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="212" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="212"/>
-      <c r="L6" s="164" t="s">
+      <c r="K6" s="182"/>
+      <c r="L6" s="168" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="162"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163" t="s">
+      <c r="A7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="209" t="s">
+      <c r="E7" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="209" t="s">
+      <c r="F7" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="209" t="s">
+      <c r="H7" s="170"/>
+      <c r="I7" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="209" t="s">
+      <c r="J7" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="209" t="s">
+      <c r="K7" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="164"/>
+      <c r="L7" s="168"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
       <c r="G8" s="94" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="209"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="209"/>
-      <c r="L8" s="164"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="168"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="113">
@@ -4292,10 +4300,10 @@
       <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="191">
+      <c r="A12" s="183">
         <v>44170</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="205" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="104" t="s">
@@ -4327,8 +4335,8 @@
       <c r="L12" s="104"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="192"/>
-      <c r="B13" s="194"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="206"/>
       <c r="C13" s="110" t="s">
         <v>21</v>
       </c>
@@ -4391,10 +4399,10 @@
       <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="213">
+      <c r="A15" s="193">
         <v>44172</v>
       </c>
-      <c r="B15" s="197" t="s">
+      <c r="B15" s="196" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="104" t="s">
@@ -4426,8 +4434,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="214"/>
-      <c r="B16" s="199"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="197"/>
       <c r="C16" s="107" t="s">
         <v>39</v>
       </c>
@@ -4455,7 +4463,7 @@
       <c r="L16" s="115"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="215"/>
+      <c r="A17" s="195"/>
       <c r="B17" s="198"/>
       <c r="C17" s="110" t="s">
         <v>39</v>
@@ -4484,10 +4492,10 @@
       <c r="L17" s="116"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="191">
+      <c r="A18" s="183">
         <v>44173</v>
       </c>
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="199" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="104" t="s">
@@ -4517,8 +4525,8 @@
       <c r="L18" s="104"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="201"/>
-      <c r="B19" s="217"/>
+      <c r="A19" s="184"/>
+      <c r="B19" s="200"/>
       <c r="C19" s="107" t="s">
         <v>26</v>
       </c>
@@ -4548,8 +4556,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="192"/>
-      <c r="B20" s="218"/>
+      <c r="A20" s="186"/>
+      <c r="B20" s="201"/>
       <c r="C20" s="110" t="s">
         <v>24</v>
       </c>
@@ -4612,10 +4620,10 @@
       <c r="L21" s="100"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="206">
+      <c r="A22" s="190">
         <v>44175</v>
       </c>
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="187" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="104" t="s">
@@ -4647,8 +4655,8 @@
       <c r="L22" s="104"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="207"/>
-      <c r="B23" s="204"/>
+      <c r="A23" s="191"/>
+      <c r="B23" s="188"/>
       <c r="C23" s="107" t="s">
         <v>71</v>
       </c>
@@ -4676,8 +4684,8 @@
       <c r="L23" s="107"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="207"/>
-      <c r="B24" s="204"/>
+      <c r="A24" s="191"/>
+      <c r="B24" s="188"/>
       <c r="C24" s="107" t="s">
         <v>29</v>
       </c>
@@ -4705,8 +4713,8 @@
       <c r="L24" s="107"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="207"/>
-      <c r="B25" s="204"/>
+      <c r="A25" s="191"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="107" t="s">
         <v>78</v>
       </c>
@@ -4734,8 +4742,8 @@
       <c r="L25" s="107"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="207"/>
-      <c r="B26" s="204"/>
+      <c r="A26" s="191"/>
+      <c r="B26" s="188"/>
       <c r="C26" s="107" t="s">
         <v>79</v>
       </c>
@@ -4763,8 +4771,8 @@
       <c r="L26" s="107"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="207"/>
-      <c r="B27" s="204"/>
+      <c r="A27" s="191"/>
+      <c r="B27" s="188"/>
       <c r="C27" s="107" t="s">
         <v>21</v>
       </c>
@@ -4794,8 +4802,8 @@
       <c r="L27" s="107"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="207"/>
-      <c r="B28" s="204"/>
+      <c r="A28" s="191"/>
+      <c r="B28" s="188"/>
       <c r="C28" s="107" t="s">
         <v>71</v>
       </c>
@@ -4823,8 +4831,8 @@
       <c r="L28" s="107"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="207"/>
-      <c r="B29" s="204"/>
+      <c r="A29" s="191"/>
+      <c r="B29" s="188"/>
       <c r="C29" s="107" t="s">
         <v>21</v>
       </c>
@@ -4854,8 +4862,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="208"/>
-      <c r="B30" s="205"/>
+      <c r="A30" s="192"/>
+      <c r="B30" s="189"/>
       <c r="C30" s="110" t="s">
         <v>28</v>
       </c>
@@ -4885,10 +4893,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="191">
+      <c r="A31" s="183">
         <v>44178</v>
       </c>
-      <c r="B31" s="197" t="s">
+      <c r="B31" s="196" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="104" t="s">
@@ -4920,7 +4928,7 @@
       <c r="L31" s="104"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="192"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="198"/>
       <c r="C32" s="110" t="s">
         <v>48</v>
@@ -5116,10 +5124,10 @@
       <c r="L37" s="100"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="191">
+      <c r="A38" s="183">
         <v>44184</v>
       </c>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="104" t="s">
@@ -5151,8 +5159,8 @@
       <c r="L38" s="104"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="201"/>
-      <c r="B39" s="199"/>
+      <c r="A39" s="184"/>
+      <c r="B39" s="197"/>
       <c r="C39" s="107" t="s">
         <v>85</v>
       </c>
@@ -5180,8 +5188,8 @@
       <c r="L39" s="107"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="201"/>
-      <c r="B40" s="199"/>
+      <c r="A40" s="184"/>
+      <c r="B40" s="197"/>
       <c r="C40" s="107" t="s">
         <v>38</v>
       </c>
@@ -5211,8 +5219,8 @@
       <c r="L40" s="107"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="201"/>
-      <c r="B41" s="199"/>
+      <c r="A41" s="184"/>
+      <c r="B41" s="197"/>
       <c r="C41" s="107" t="s">
         <v>39</v>
       </c>
@@ -5240,8 +5248,8 @@
       <c r="L41" s="107"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="202"/>
-      <c r="B42" s="200"/>
+      <c r="A42" s="185"/>
+      <c r="B42" s="209"/>
       <c r="C42" s="132" t="s">
         <v>26</v>
       </c>
@@ -5271,7 +5279,7 @@
       <c r="L42" s="132"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="192"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="198"/>
       <c r="C43" s="110" t="s">
         <v>42</v>
@@ -5333,10 +5341,10 @@
       <c r="L44" s="100"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="191">
+      <c r="A45" s="183">
         <v>44187</v>
       </c>
-      <c r="B45" s="197" t="s">
+      <c r="B45" s="196" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="104" t="s">
@@ -5366,7 +5374,7 @@
       <c r="L45" s="104"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="192"/>
+      <c r="A46" s="186"/>
       <c r="B46" s="198"/>
       <c r="C46" s="110" t="s">
         <v>38</v>
@@ -5395,10 +5403,10 @@
       <c r="L46" s="110"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="191">
+      <c r="A47" s="183">
         <v>44190</v>
       </c>
-      <c r="B47" s="197" t="s">
+      <c r="B47" s="196" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="104" t="s">
@@ -5430,7 +5438,7 @@
       <c r="L47" s="104"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="192"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="198"/>
       <c r="C48" s="110" t="s">
         <v>88</v>
@@ -5459,10 +5467,10 @@
       <c r="L48" s="110"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="191">
+      <c r="A49" s="183">
         <v>44193</v>
       </c>
-      <c r="B49" s="197" t="s">
+      <c r="B49" s="196" t="s">
         <v>75</v>
       </c>
       <c r="C49" s="104" t="s">
@@ -5492,7 +5500,7 @@
       <c r="L49" s="104"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="192"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="198"/>
       <c r="C50" s="110" t="s">
         <v>89</v>
@@ -5521,10 +5529,10 @@
       <c r="L50" s="110"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="191">
+      <c r="A51" s="183">
         <v>44194</v>
       </c>
-      <c r="B51" s="197" t="s">
+      <c r="B51" s="196" t="s">
         <v>75</v>
       </c>
       <c r="C51" s="104" t="s">
@@ -5556,7 +5564,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="192"/>
+      <c r="A52" s="186"/>
       <c r="B52" s="198"/>
       <c r="C52" s="110" t="s">
         <v>83</v>
@@ -5653,11 +5661,11 @@
       <c r="L54" s="110"/>
     </row>
     <row r="55" spans="1:12" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="188" t="s">
+      <c r="A55" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="189"/>
-      <c r="C55" s="190"/>
+      <c r="B55" s="203"/>
+      <c r="C55" s="204"/>
       <c r="D55" s="127">
         <f>SUM(D9:D54)</f>
         <v>59</v>
@@ -5684,14 +5692,14 @@
       <c r="L55" s="130"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="195" t="s">
+      <c r="A56" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="195"/>
-      <c r="C56" s="195"/>
-      <c r="D56" s="195"/>
-      <c r="E56" s="195"/>
-      <c r="F56" s="195"/>
+      <c r="B56" s="207"/>
+      <c r="C56" s="207"/>
+      <c r="D56" s="207"/>
+      <c r="E56" s="207"/>
+      <c r="F56" s="207"/>
       <c r="G56" s="136"/>
       <c r="H56" s="137"/>
       <c r="I56" s="136">
@@ -5702,14 +5710,14 @@
       <c r="L56" s="104"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="196" t="s">
+      <c r="A57" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="196"/>
-      <c r="C57" s="196"/>
-      <c r="D57" s="196"/>
-      <c r="E57" s="196"/>
-      <c r="F57" s="196"/>
+      <c r="B57" s="208"/>
+      <c r="C57" s="208"/>
+      <c r="D57" s="208"/>
+      <c r="E57" s="208"/>
+      <c r="F57" s="208"/>
       <c r="G57" s="138"/>
       <c r="H57" s="139"/>
       <c r="I57" s="138">
@@ -5724,6 +5732,12 @@
       <c r="A59" s="82" t="s">
         <v>94</v>
       </c>
+      <c r="B59" s="219"/>
+      <c r="C59" s="219"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="221"/>
+      <c r="F59" s="221"/>
+      <c r="G59" s="221"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="74"/>
@@ -5749,40 +5763,39 @@
       <c r="C62" s="143"/>
       <c r="D62" s="143"/>
       <c r="E62" s="144"/>
-      <c r="F62" s="145">
-        <f>K55</f>
-        <v>2296750</v>
-      </c>
-      <c r="G62" s="182">
+      <c r="F62" s="145" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="213">
         <v>24695550</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="75"/>
-      <c r="B63" s="185" t="s">
+      <c r="B63" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="186"/>
-      <c r="D63" s="186"/>
-      <c r="E63" s="187"/>
+      <c r="C63" s="217"/>
+      <c r="D63" s="217"/>
+      <c r="E63" s="218"/>
       <c r="F63" s="145">
         <f>I11+I13+I40+I42</f>
         <v>1398300.0000000005</v>
       </c>
-      <c r="G63" s="183"/>
+      <c r="G63" s="214"/>
       <c r="J63" s="146"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="179" t="s">
+      <c r="B64" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="180"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="181"/>
+      <c r="C64" s="211"/>
+      <c r="D64" s="211"/>
+      <c r="E64" s="212"/>
       <c r="F64" s="145">
         <v>16160000</v>
       </c>
-      <c r="G64" s="183"/>
+      <c r="G64" s="214"/>
       <c r="J64" s="97"/>
       <c r="K64" s="97"/>
     </row>
@@ -5796,7 +5809,7 @@
       <c r="F65" s="145">
         <v>3230000</v>
       </c>
-      <c r="G65" s="183"/>
+      <c r="G65" s="214"/>
       <c r="J65" s="146"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -5809,20 +5822,20 @@
       <c r="F66" s="145">
         <v>829000</v>
       </c>
-      <c r="G66" s="183"/>
+      <c r="G66" s="214"/>
       <c r="J66" s="146"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="179" t="s">
+      <c r="B67" s="210" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="180"/>
-      <c r="D67" s="180"/>
-      <c r="E67" s="181"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="211"/>
+      <c r="E67" s="212"/>
       <c r="F67" s="145">
         <v>288000</v>
       </c>
-      <c r="G67" s="183"/>
+      <c r="G67" s="214"/>
       <c r="J67" s="146"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -5835,25 +5848,29 @@
       <c r="F68" s="145">
         <v>79000</v>
       </c>
-      <c r="G68" s="183"/>
+      <c r="G68" s="214"/>
       <c r="J68" s="146"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="179" t="s">
+      <c r="B69" s="210" t="s">
         <v>103</v>
       </c>
-      <c r="C69" s="180"/>
-      <c r="D69" s="180"/>
-      <c r="E69" s="181"/>
+      <c r="C69" s="211"/>
+      <c r="D69" s="211"/>
+      <c r="E69" s="212"/>
       <c r="F69" s="145">
         <v>1628000</v>
       </c>
-      <c r="G69" s="184"/>
+      <c r="G69" s="215"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="82" t="s">
         <v>106</v>
       </c>
+      <c r="B71" s="219"/>
+      <c r="C71" s="219"/>
+      <c r="D71" s="220"/>
+      <c r="E71" s="221"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="91" t="s">
@@ -5870,29 +5887,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="G62:G69"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B67:E67"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
@@ -5909,11 +5908,29 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="G62:G69"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -5963,130 +5980,125 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="181" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="212" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="212"/>
-      <c r="L6" s="164" t="s">
+      <c r="K6" s="182"/>
+      <c r="L6" s="168" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163" t="s">
+      <c r="A7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="209" t="s">
+      <c r="E7" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="209" t="s">
+      <c r="F7" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="209" t="s">
+      <c r="H7" s="170"/>
+      <c r="I7" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="209" t="s">
+      <c r="J7" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="209" t="s">
+      <c r="K7" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="164"/>
+      <c r="L7" s="168"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
       <c r="G8" s="118" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="209"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="209"/>
-      <c r="L8" s="164"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -6098,6 +6110,11 @@
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ TOÁN - THÁI HẰNG\HangWorkspace\KẾ TOÁN - THÁI HẰNG\SHOWROOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ TOÁN - THÁI HẰNG\KẾ TOÁN - THÁI HẰNG\SHOWROOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 11_2020" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -980,224 +980,234 @@
     </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1533,122 +1543,122 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
+      <c r="A4" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="176"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
+      <c r="A5" s="177"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="169"/>
-      <c r="L6" s="168" t="s">
+      <c r="K6" s="168"/>
+      <c r="L6" s="167" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167" t="s">
+      <c r="A7" s="165"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="171" t="s">
+      <c r="F7" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="171" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="171" t="s">
+      <c r="J7" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="171" t="s">
+      <c r="K7" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="168"/>
+      <c r="L7" s="167"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
       <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="168"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="167"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="57">
@@ -1717,10 +1727,10 @@
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="153">
+      <c r="A11" s="173">
         <v>44142</v>
       </c>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="171" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1752,8 +1762,8 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="148"/>
-      <c r="B12" s="151"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
@@ -1782,8 +1792,8 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="149"/>
-      <c r="B13" s="152"/>
+      <c r="A13" s="174"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="22" t="s">
         <v>26</v>
       </c>
@@ -1813,10 +1823,10 @@
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="148">
+      <c r="A14" s="158">
         <v>44142</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="161" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -1848,8 +1858,8 @@
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="148"/>
-      <c r="B15" s="151"/>
+      <c r="A15" s="158"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
@@ -1879,8 +1889,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="149"/>
-      <c r="B16" s="152"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
@@ -1910,10 +1920,10 @@
       <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="153">
+      <c r="A17" s="173">
         <v>44143</v>
       </c>
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="171" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1945,8 +1955,8 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="148"/>
-      <c r="B18" s="151"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
@@ -1974,8 +1984,8 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="148"/>
-      <c r="B19" s="151"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
@@ -2005,8 +2015,8 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148"/>
-      <c r="B20" s="151"/>
+      <c r="A20" s="158"/>
+      <c r="B20" s="161"/>
       <c r="C20" s="17" t="s">
         <v>24</v>
       </c>
@@ -2038,8 +2048,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="148"/>
-      <c r="B21" s="151"/>
+      <c r="A21" s="158"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="17" t="s">
         <v>30</v>
       </c>
@@ -2067,8 +2077,8 @@
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="149"/>
-      <c r="B22" s="152"/>
+      <c r="A22" s="174"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="22" t="s">
         <v>31</v>
       </c>
@@ -2096,10 +2106,10 @@
       <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="156">
+      <c r="A23" s="180">
         <v>44144</v>
       </c>
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="178" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2131,8 +2141,8 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="157"/>
-      <c r="B24" s="155"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="20" t="s">
         <v>33</v>
       </c>
@@ -2160,10 +2170,10 @@
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="153">
+      <c r="A25" s="173">
         <v>44146</v>
       </c>
-      <c r="B25" s="150" t="s">
+      <c r="B25" s="171" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="60" t="s">
@@ -2193,8 +2203,8 @@
       <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="148"/>
-      <c r="B26" s="151"/>
+      <c r="A26" s="158"/>
+      <c r="B26" s="161"/>
       <c r="C26" s="60" t="s">
         <v>37</v>
       </c>
@@ -2222,8 +2232,8 @@
       <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="148"/>
-      <c r="B27" s="151"/>
+      <c r="A27" s="158"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="60" t="s">
         <v>38</v>
       </c>
@@ -2248,13 +2258,13 @@
         <v>550000</v>
       </c>
       <c r="K27" s="54"/>
-      <c r="L27" s="162" t="s">
+      <c r="L27" s="160" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="164"/>
-      <c r="B28" s="163"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="162"/>
       <c r="C28" s="60" t="s">
         <v>39</v>
       </c>
@@ -2279,7 +2289,7 @@
         <v>225000</v>
       </c>
       <c r="K28" s="54"/>
-      <c r="L28" s="163"/>
+      <c r="L28" s="162"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
@@ -2315,10 +2325,10 @@
       <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="165">
+      <c r="A30" s="157">
         <v>44149</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="160" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -2348,8 +2358,8 @@
       <c r="L30" s="60"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="164"/>
-      <c r="B31" s="163"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="162"/>
       <c r="C31" s="60" t="s">
         <v>38</v>
       </c>
@@ -2380,10 +2390,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="165">
+      <c r="A32" s="157">
         <v>44151</v>
       </c>
-      <c r="B32" s="162" t="s">
+      <c r="B32" s="160" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -2413,8 +2423,8 @@
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="148"/>
-      <c r="B33" s="151"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="161"/>
       <c r="C33" s="15" t="s">
         <v>45</v>
       </c>
@@ -2442,8 +2452,8 @@
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="164"/>
-      <c r="B34" s="163"/>
+      <c r="A34" s="159"/>
+      <c r="B34" s="162"/>
       <c r="C34" s="15" t="s">
         <v>46</v>
       </c>
@@ -2537,10 +2547,10 @@
       <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="165">
+      <c r="A37" s="157">
         <v>44156</v>
       </c>
-      <c r="B37" s="162" t="s">
+      <c r="B37" s="160" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -2573,8 +2583,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="164"/>
-      <c r="B38" s="163"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="15" t="s">
         <v>38</v>
       </c>
@@ -2605,7 +2615,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="165">
+      <c r="A39" s="157">
         <v>44160</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -2638,7 +2648,7 @@
       <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="164"/>
+      <c r="A40" s="159"/>
       <c r="B40" s="15" t="s">
         <v>20</v>
       </c>
@@ -2670,10 +2680,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="165">
+      <c r="A41" s="157">
         <v>44161</v>
       </c>
-      <c r="B41" s="162" t="s">
+      <c r="B41" s="160" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -2703,8 +2713,8 @@
       <c r="L41" s="15"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="148"/>
-      <c r="B42" s="151"/>
+      <c r="A42" s="158"/>
+      <c r="B42" s="161"/>
       <c r="C42" s="15" t="s">
         <v>29</v>
       </c>
@@ -2732,8 +2742,8 @@
       <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="148"/>
-      <c r="B43" s="151"/>
+      <c r="A43" s="158"/>
+      <c r="B43" s="161"/>
       <c r="C43" s="15" t="s">
         <v>39</v>
       </c>
@@ -2761,8 +2771,8 @@
       <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="148"/>
-      <c r="B44" s="151"/>
+      <c r="A44" s="158"/>
+      <c r="B44" s="161"/>
       <c r="C44" s="15" t="s">
         <v>51</v>
       </c>
@@ -2790,8 +2800,8 @@
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="148"/>
-      <c r="B45" s="163"/>
+      <c r="A45" s="158"/>
+      <c r="B45" s="162"/>
       <c r="C45" s="15" t="s">
         <v>26</v>
       </c>
@@ -2821,7 +2831,7 @@
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="164"/>
+      <c r="A46" s="159"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
       </c>
@@ -2920,10 +2930,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="165">
+      <c r="A49" s="157">
         <v>44165</v>
       </c>
-      <c r="B49" s="162" t="s">
+      <c r="B49" s="160" t="s">
         <v>27</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -2953,8 +2963,8 @@
       <c r="L49" s="15"/>
     </row>
     <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="148"/>
-      <c r="B50" s="151"/>
+      <c r="A50" s="158"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="15" t="s">
         <v>49</v>
       </c>
@@ -2983,8 +2993,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="148"/>
-      <c r="B51" s="151"/>
+      <c r="A51" s="158"/>
+      <c r="B51" s="161"/>
       <c r="C51" s="15" t="s">
         <v>55</v>
       </c>
@@ -3012,8 +3022,8 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="148"/>
-      <c r="B52" s="151"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="161"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -3042,8 +3052,8 @@
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="164"/>
-      <c r="B53" s="163"/>
+      <c r="A53" s="159"/>
+      <c r="B53" s="162"/>
       <c r="C53" s="15" t="s">
         <v>21</v>
       </c>
@@ -3251,7 +3261,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
-      <c r="L66" s="160"/>
+      <c r="L66" s="163"/>
     </row>
     <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
@@ -3265,7 +3275,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
-      <c r="L67" s="160"/>
+      <c r="L67" s="163"/>
     </row>
     <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
@@ -3279,7 +3289,7 @@
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
-      <c r="L68" s="160"/>
+      <c r="L68" s="163"/>
     </row>
     <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
@@ -3293,7 +3303,7 @@
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18"/>
-      <c r="L69" s="160"/>
+      <c r="L69" s="163"/>
     </row>
     <row r="70" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
@@ -3307,7 +3317,7 @@
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
       <c r="K70" s="18"/>
-      <c r="L70" s="160"/>
+      <c r="L70" s="163"/>
     </row>
     <row r="71" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
@@ -3321,7 +3331,7 @@
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
-      <c r="L71" s="160"/>
+      <c r="L71" s="163"/>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
@@ -3363,7 +3373,7 @@
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
-      <c r="L74" s="160"/>
+      <c r="L74" s="163"/>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
@@ -3377,7 +3387,7 @@
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
       <c r="K75" s="18"/>
-      <c r="L75" s="160"/>
+      <c r="L75" s="163"/>
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
@@ -3391,7 +3401,7 @@
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="K76" s="18"/>
-      <c r="L76" s="160"/>
+      <c r="L76" s="163"/>
     </row>
     <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
@@ -3758,11 +3768,11 @@
       <c r="L102" s="22"/>
     </row>
     <row r="103" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="172" t="s">
+      <c r="A103" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="172"/>
-      <c r="C103" s="172"/>
+      <c r="B103" s="164"/>
+      <c r="C103" s="164"/>
       <c r="D103" s="39">
         <f>SUM(D9:D102)</f>
         <v>48</v>
@@ -3853,23 +3863,23 @@
       <c r="F109" s="80"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="173" t="s">
+      <c r="B110" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="C110" s="174"/>
-      <c r="D110" s="174"/>
-      <c r="E110" s="175"/>
+      <c r="C110" s="152"/>
+      <c r="D110" s="152"/>
+      <c r="E110" s="153"/>
       <c r="F110" s="77">
         <v>3000000</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="173" t="s">
+      <c r="B111" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="174"/>
-      <c r="D111" s="174"/>
-      <c r="E111" s="175"/>
+      <c r="C111" s="152"/>
+      <c r="D111" s="152"/>
+      <c r="E111" s="153"/>
       <c r="F111" s="77">
         <v>721000</v>
       </c>
@@ -3877,12 +3887,12 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
-      <c r="B112" s="173" t="s">
+      <c r="B112" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="C112" s="174"/>
-      <c r="D112" s="174"/>
-      <c r="E112" s="175"/>
+      <c r="C112" s="152"/>
+      <c r="D112" s="152"/>
+      <c r="E112" s="153"/>
       <c r="F112" s="77">
         <v>910000</v>
       </c>
@@ -3893,45 +3903,45 @@
       <c r="K112" s="14"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="173" t="s">
+      <c r="B113" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="C113" s="174"/>
-      <c r="D113" s="174"/>
-      <c r="E113" s="175"/>
+      <c r="C113" s="152"/>
+      <c r="D113" s="152"/>
+      <c r="E113" s="153"/>
       <c r="F113" s="77">
         <v>300000</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="173" t="s">
+      <c r="B114" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="C114" s="174"/>
-      <c r="D114" s="174"/>
-      <c r="E114" s="175"/>
+      <c r="C114" s="152"/>
+      <c r="D114" s="152"/>
+      <c r="E114" s="153"/>
       <c r="F114" s="77">
         <v>235000</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="173" t="s">
+      <c r="B115" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="C115" s="174"/>
-      <c r="D115" s="174"/>
-      <c r="E115" s="175"/>
+      <c r="C115" s="152"/>
+      <c r="D115" s="152"/>
+      <c r="E115" s="153"/>
       <c r="F115" s="77">
         <v>2223000</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="176" t="s">
+      <c r="B116" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="177"/>
-      <c r="D116" s="177"/>
-      <c r="E116" s="178"/>
+      <c r="C116" s="155"/>
+      <c r="D116" s="155"/>
+      <c r="E116" s="156"/>
       <c r="F116" s="79">
         <f>SUM(F110:F115)</f>
         <v>7389000</v>
@@ -3969,34 +3979,11 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="L74:L76"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A3:L3"/>
@@ -4013,11 +4000,34 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:E113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4028,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F62" sqref="F62:F69"/>
     </sheetView>
   </sheetViews>
@@ -4081,122 +4091,122 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
+      <c r="A5" s="177"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="182" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="182"/>
-      <c r="L6" s="168" t="s">
+      <c r="K6" s="221"/>
+      <c r="L6" s="167" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="166"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167" t="s">
+      <c r="A7" s="165"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="179" t="s">
+      <c r="E7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="179" t="s">
+      <c r="F7" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="179" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="179" t="s">
+      <c r="J7" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="179" t="s">
+      <c r="K7" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="168"/>
+      <c r="L7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="166"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
       <c r="G8" s="94" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="168"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="167"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="113">
@@ -4300,10 +4310,10 @@
       <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="183">
+      <c r="A12" s="194">
         <v>44170</v>
       </c>
-      <c r="B12" s="205" t="s">
+      <c r="B12" s="196" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="104" t="s">
@@ -4335,8 +4345,8 @@
       <c r="L12" s="104"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="186"/>
-      <c r="B13" s="206"/>
+      <c r="A13" s="195"/>
+      <c r="B13" s="197"/>
       <c r="C13" s="110" t="s">
         <v>21</v>
       </c>
@@ -4399,10 +4409,10 @@
       <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="193">
+      <c r="A15" s="213">
         <v>44172</v>
       </c>
-      <c r="B15" s="196" t="s">
+      <c r="B15" s="200" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="104" t="s">
@@ -4434,8 +4444,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="194"/>
-      <c r="B16" s="197"/>
+      <c r="A16" s="214"/>
+      <c r="B16" s="202"/>
       <c r="C16" s="107" t="s">
         <v>39</v>
       </c>
@@ -4463,8 +4473,8 @@
       <c r="L16" s="115"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="195"/>
-      <c r="B17" s="198"/>
+      <c r="A17" s="215"/>
+      <c r="B17" s="201"/>
       <c r="C17" s="110" t="s">
         <v>39</v>
       </c>
@@ -4492,10 +4502,10 @@
       <c r="L17" s="116"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="183">
+      <c r="A18" s="194">
         <v>44173</v>
       </c>
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="216" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="104" t="s">
@@ -4525,8 +4535,8 @@
       <c r="L18" s="104"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="184"/>
-      <c r="B19" s="200"/>
+      <c r="A19" s="204"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="107" t="s">
         <v>26</v>
       </c>
@@ -4556,8 +4566,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="186"/>
-      <c r="B20" s="201"/>
+      <c r="A20" s="195"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="110" t="s">
         <v>24</v>
       </c>
@@ -4620,10 +4630,10 @@
       <c r="L21" s="100"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="190">
+      <c r="A22" s="209">
         <v>44175</v>
       </c>
-      <c r="B22" s="187" t="s">
+      <c r="B22" s="206" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="104" t="s">
@@ -4655,8 +4665,8 @@
       <c r="L22" s="104"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="191"/>
-      <c r="B23" s="188"/>
+      <c r="A23" s="210"/>
+      <c r="B23" s="207"/>
       <c r="C23" s="107" t="s">
         <v>71</v>
       </c>
@@ -4684,8 +4694,8 @@
       <c r="L23" s="107"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="191"/>
-      <c r="B24" s="188"/>
+      <c r="A24" s="210"/>
+      <c r="B24" s="207"/>
       <c r="C24" s="107" t="s">
         <v>29</v>
       </c>
@@ -4713,8 +4723,8 @@
       <c r="L24" s="107"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="191"/>
-      <c r="B25" s="188"/>
+      <c r="A25" s="210"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="107" t="s">
         <v>78</v>
       </c>
@@ -4742,8 +4752,8 @@
       <c r="L25" s="107"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="191"/>
-      <c r="B26" s="188"/>
+      <c r="A26" s="210"/>
+      <c r="B26" s="207"/>
       <c r="C26" s="107" t="s">
         <v>79</v>
       </c>
@@ -4771,8 +4781,8 @@
       <c r="L26" s="107"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="191"/>
-      <c r="B27" s="188"/>
+      <c r="A27" s="210"/>
+      <c r="B27" s="207"/>
       <c r="C27" s="107" t="s">
         <v>21</v>
       </c>
@@ -4802,8 +4812,8 @@
       <c r="L27" s="107"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="191"/>
-      <c r="B28" s="188"/>
+      <c r="A28" s="210"/>
+      <c r="B28" s="207"/>
       <c r="C28" s="107" t="s">
         <v>71</v>
       </c>
@@ -4831,8 +4841,8 @@
       <c r="L28" s="107"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="191"/>
-      <c r="B29" s="188"/>
+      <c r="A29" s="210"/>
+      <c r="B29" s="207"/>
       <c r="C29" s="107" t="s">
         <v>21</v>
       </c>
@@ -4862,8 +4872,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="192"/>
-      <c r="B30" s="189"/>
+      <c r="A30" s="211"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="110" t="s">
         <v>28</v>
       </c>
@@ -4893,10 +4903,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="183">
+      <c r="A31" s="194">
         <v>44178</v>
       </c>
-      <c r="B31" s="196" t="s">
+      <c r="B31" s="200" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="104" t="s">
@@ -4928,8 +4938,8 @@
       <c r="L31" s="104"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="186"/>
-      <c r="B32" s="198"/>
+      <c r="A32" s="195"/>
+      <c r="B32" s="201"/>
       <c r="C32" s="110" t="s">
         <v>48</v>
       </c>
@@ -5124,10 +5134,10 @@
       <c r="L37" s="100"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="183">
+      <c r="A38" s="194">
         <v>44184</v>
       </c>
-      <c r="B38" s="196" t="s">
+      <c r="B38" s="200" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="104" t="s">
@@ -5159,8 +5169,8 @@
       <c r="L38" s="104"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="184"/>
-      <c r="B39" s="197"/>
+      <c r="A39" s="204"/>
+      <c r="B39" s="202"/>
       <c r="C39" s="107" t="s">
         <v>85</v>
       </c>
@@ -5188,8 +5198,8 @@
       <c r="L39" s="107"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="184"/>
-      <c r="B40" s="197"/>
+      <c r="A40" s="204"/>
+      <c r="B40" s="202"/>
       <c r="C40" s="107" t="s">
         <v>38</v>
       </c>
@@ -5219,8 +5229,8 @@
       <c r="L40" s="107"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
-      <c r="B41" s="197"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="202"/>
       <c r="C41" s="107" t="s">
         <v>39</v>
       </c>
@@ -5248,8 +5258,8 @@
       <c r="L41" s="107"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="185"/>
-      <c r="B42" s="209"/>
+      <c r="A42" s="205"/>
+      <c r="B42" s="203"/>
       <c r="C42" s="132" t="s">
         <v>26</v>
       </c>
@@ -5279,8 +5289,8 @@
       <c r="L42" s="132"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="186"/>
-      <c r="B43" s="198"/>
+      <c r="A43" s="195"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="110" t="s">
         <v>42</v>
       </c>
@@ -5341,10 +5351,10 @@
       <c r="L44" s="100"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="183">
+      <c r="A45" s="194">
         <v>44187</v>
       </c>
-      <c r="B45" s="196" t="s">
+      <c r="B45" s="200" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="104" t="s">
@@ -5374,8 +5384,8 @@
       <c r="L45" s="104"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="186"/>
-      <c r="B46" s="198"/>
+      <c r="A46" s="195"/>
+      <c r="B46" s="201"/>
       <c r="C46" s="110" t="s">
         <v>38</v>
       </c>
@@ -5403,10 +5413,10 @@
       <c r="L46" s="110"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="183">
+      <c r="A47" s="194">
         <v>44190</v>
       </c>
-      <c r="B47" s="196" t="s">
+      <c r="B47" s="200" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="104" t="s">
@@ -5438,8 +5448,8 @@
       <c r="L47" s="104"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="186"/>
-      <c r="B48" s="198"/>
+      <c r="A48" s="195"/>
+      <c r="B48" s="201"/>
       <c r="C48" s="110" t="s">
         <v>88</v>
       </c>
@@ -5467,10 +5477,10 @@
       <c r="L48" s="110"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="183">
+      <c r="A49" s="194">
         <v>44193</v>
       </c>
-      <c r="B49" s="196" t="s">
+      <c r="B49" s="200" t="s">
         <v>75</v>
       </c>
       <c r="C49" s="104" t="s">
@@ -5500,8 +5510,8 @@
       <c r="L49" s="104"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="186"/>
-      <c r="B50" s="198"/>
+      <c r="A50" s="195"/>
+      <c r="B50" s="201"/>
       <c r="C50" s="110" t="s">
         <v>89</v>
       </c>
@@ -5529,10 +5539,10 @@
       <c r="L50" s="110"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="183">
+      <c r="A51" s="194">
         <v>44194</v>
       </c>
-      <c r="B51" s="196" t="s">
+      <c r="B51" s="200" t="s">
         <v>75</v>
       </c>
       <c r="C51" s="104" t="s">
@@ -5564,8 +5574,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="186"/>
-      <c r="B52" s="198"/>
+      <c r="A52" s="195"/>
+      <c r="B52" s="201"/>
       <c r="C52" s="110" t="s">
         <v>83</v>
       </c>
@@ -5661,11 +5671,11 @@
       <c r="L54" s="110"/>
     </row>
     <row r="55" spans="1:12" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="202" t="s">
+      <c r="A55" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="203"/>
-      <c r="C55" s="204"/>
+      <c r="B55" s="192"/>
+      <c r="C55" s="193"/>
       <c r="D55" s="127">
         <f>SUM(D9:D54)</f>
         <v>59</v>
@@ -5692,14 +5702,14 @@
       <c r="L55" s="130"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="207" t="s">
+      <c r="A56" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="207"/>
-      <c r="C56" s="207"/>
-      <c r="D56" s="207"/>
-      <c r="E56" s="207"/>
-      <c r="F56" s="207"/>
+      <c r="B56" s="198"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="198"/>
+      <c r="E56" s="198"/>
+      <c r="F56" s="198"/>
       <c r="G56" s="136"/>
       <c r="H56" s="137"/>
       <c r="I56" s="136">
@@ -5710,14 +5720,14 @@
       <c r="L56" s="104"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="208" t="s">
+      <c r="A57" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="208"/>
-      <c r="C57" s="208"/>
-      <c r="D57" s="208"/>
-      <c r="E57" s="208"/>
-      <c r="F57" s="208"/>
+      <c r="B57" s="199"/>
+      <c r="C57" s="199"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
       <c r="G57" s="138"/>
       <c r="H57" s="139"/>
       <c r="I57" s="138">
@@ -5732,12 +5742,12 @@
       <c r="A59" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="219"/>
-      <c r="C59" s="219"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="221"/>
-      <c r="F59" s="221"/>
-      <c r="G59" s="221"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="149"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="74"/>
@@ -5766,36 +5776,36 @@
       <c r="F62" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="G62" s="213">
+      <c r="G62" s="185">
         <v>24695550</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="75"/>
-      <c r="B63" s="216" t="s">
+      <c r="B63" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="217"/>
-      <c r="D63" s="217"/>
-      <c r="E63" s="218"/>
+      <c r="C63" s="189"/>
+      <c r="D63" s="189"/>
+      <c r="E63" s="190"/>
       <c r="F63" s="145">
         <f>I11+I13+I40+I42</f>
         <v>1398300.0000000005</v>
       </c>
-      <c r="G63" s="214"/>
+      <c r="G63" s="186"/>
       <c r="J63" s="146"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="210" t="s">
+      <c r="B64" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="211"/>
-      <c r="D64" s="211"/>
-      <c r="E64" s="212"/>
+      <c r="C64" s="183"/>
+      <c r="D64" s="183"/>
+      <c r="E64" s="184"/>
       <c r="F64" s="145">
         <v>16160000</v>
       </c>
-      <c r="G64" s="214"/>
+      <c r="G64" s="186"/>
       <c r="J64" s="97"/>
       <c r="K64" s="97"/>
     </row>
@@ -5809,7 +5819,7 @@
       <c r="F65" s="145">
         <v>3230000</v>
       </c>
-      <c r="G65" s="214"/>
+      <c r="G65" s="186"/>
       <c r="J65" s="146"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -5822,20 +5832,20 @@
       <c r="F66" s="145">
         <v>829000</v>
       </c>
-      <c r="G66" s="214"/>
+      <c r="G66" s="186"/>
       <c r="J66" s="146"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="210" t="s">
+      <c r="B67" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="211"/>
-      <c r="D67" s="211"/>
-      <c r="E67" s="212"/>
+      <c r="C67" s="183"/>
+      <c r="D67" s="183"/>
+      <c r="E67" s="184"/>
       <c r="F67" s="145">
         <v>288000</v>
       </c>
-      <c r="G67" s="214"/>
+      <c r="G67" s="186"/>
       <c r="J67" s="146"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -5848,29 +5858,29 @@
       <c r="F68" s="145">
         <v>79000</v>
       </c>
-      <c r="G68" s="214"/>
+      <c r="G68" s="186"/>
       <c r="J68" s="146"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="210" t="s">
+      <c r="B69" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="C69" s="211"/>
-      <c r="D69" s="211"/>
-      <c r="E69" s="212"/>
+      <c r="C69" s="183"/>
+      <c r="D69" s="183"/>
+      <c r="E69" s="184"/>
       <c r="F69" s="145">
         <v>1628000</v>
       </c>
-      <c r="G69" s="215"/>
+      <c r="G69" s="187"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="219"/>
-      <c r="C71" s="219"/>
-      <c r="D71" s="220"/>
-      <c r="E71" s="221"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="150"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="91" t="s">
@@ -5887,11 +5897,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="G62:G69"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
@@ -5908,29 +5936,11 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B38:B43"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="G62:G69"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B67:E67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -5941,14 +5951,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="225"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="51"/>
@@ -5964,7 +5977,7 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="223" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="6"/>
@@ -5980,122 +5993,122 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="220" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
+      <c r="A5" s="177"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="182" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="182"/>
-      <c r="L6" s="168" t="s">
+      <c r="K6" s="221"/>
+      <c r="L6" s="167" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167" t="s">
+      <c r="A7" s="224"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="179" t="s">
+      <c r="E7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="179" t="s">
+      <c r="F7" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="179" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="179" t="s">
+      <c r="J7" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="179" t="s">
+      <c r="K7" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="168"/>
+      <c r="L7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="166"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
       <c r="G8" s="118" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="168"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM/DOANH THU_SHOWROOM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="138">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -353,6 +353,93 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Chị Thơm</t>
+  </si>
+  <si>
+    <t>Moony S</t>
+  </si>
+  <si>
+    <t>Blackmore2</t>
+  </si>
+  <si>
+    <t>BCX90</t>
+  </si>
+  <si>
+    <t>Grow 2</t>
+  </si>
+  <si>
+    <t>Nan nga 2</t>
+  </si>
+  <si>
+    <t>Merries L</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>Semper nga 1</t>
+  </si>
+  <si>
+    <t>Miếng lót Huger</t>
+  </si>
+  <si>
+    <t>Bình Su 180</t>
+  </si>
+  <si>
+    <t>Closbaby 0</t>
+  </si>
+  <si>
+    <t>Monny M</t>
+  </si>
+  <si>
+    <t>Bobby L</t>
+  </si>
+  <si>
+    <t>Pamber</t>
+  </si>
+  <si>
+    <t>3CX90</t>
+  </si>
+  <si>
+    <t>GC90</t>
+  </si>
+  <si>
+    <t>- Số tiền Hoa hồng của chị Thơm HC (Chưa thanh toán, Cộng vào tiền thưởng (Bảng lương): 21h Nanomilk * 50.000 + 9h sữa ngoại trừ vinamilk và bỉm*10,000= 1,140,000</t>
+  </si>
+  <si>
+    <t>Tồn tháng 12</t>
+  </si>
+  <si>
+    <t>- Tổng doanh thu showroom tháng 12 là : 16,514,500 + 608,000 (tồn T12) = 17,122,500, trong đó:</t>
+  </si>
+  <si>
+    <t>Tiền hàng HĐ2412</t>
+  </si>
+  <si>
+    <t>Thu tiền hàng chị Tâm</t>
+  </si>
+  <si>
+    <t>Thu tiền hàng anh Nam bách khoa</t>
+  </si>
+  <si>
+    <t>Thu tiền hàng chị Quân</t>
+  </si>
+  <si>
+    <t>Thu tiền hàng chị Nhân</t>
+  </si>
+  <si>
+    <t>Tiền Showrom hàng thu+ tồn tháng 12</t>
+  </si>
+  <si>
+    <t>Tiền điện</t>
+  </si>
+  <si>
+    <t>Thắp hương</t>
+  </si>
+  <si>
+    <t>=20,539,000-19,536,000=1,003,000</t>
   </si>
 </sst>
 </file>
@@ -365,7 +452,7 @@
     <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -497,6 +584,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -518,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -686,6 +780,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -693,7 +796,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -925,9 +1028,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,6 +1085,75 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1198,16 +1367,45 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1543,122 +1741,122 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
+      <c r="A4" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="210"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
+      <c r="A5" s="211"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168" t="s">
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="168"/>
-      <c r="L6" s="167" t="s">
+      <c r="K6" s="202"/>
+      <c r="L6" s="201" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166" t="s">
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="170" t="s">
+      <c r="E7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="170" t="s">
+      <c r="F7" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="170" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="170" t="s">
+      <c r="J7" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="170" t="s">
+      <c r="K7" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="167"/>
+      <c r="L7" s="201"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
       <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="167"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="201"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="57">
@@ -1727,10 +1925,10 @@
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="173">
+      <c r="A11" s="207">
         <v>44142</v>
       </c>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="205" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1762,8 +1960,8 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="158"/>
-      <c r="B12" s="161"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="195"/>
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1990,8 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="174"/>
-      <c r="B13" s="172"/>
+      <c r="A13" s="208"/>
+      <c r="B13" s="206"/>
       <c r="C13" s="22" t="s">
         <v>26</v>
       </c>
@@ -1823,10 +2021,10 @@
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="158">
+      <c r="A14" s="192">
         <v>44142</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="195" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -1858,8 +2056,8 @@
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="158"/>
-      <c r="B15" s="161"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="195"/>
       <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
@@ -1889,8 +2087,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
-      <c r="B16" s="172"/>
+      <c r="A16" s="208"/>
+      <c r="B16" s="206"/>
       <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
@@ -1920,10 +2118,10 @@
       <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="173">
+      <c r="A17" s="207">
         <v>44143</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="205" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1955,8 +2153,8 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="158"/>
-      <c r="B18" s="161"/>
+      <c r="A18" s="192"/>
+      <c r="B18" s="195"/>
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
@@ -1984,8 +2182,8 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="158"/>
-      <c r="B19" s="161"/>
+      <c r="A19" s="192"/>
+      <c r="B19" s="195"/>
       <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
@@ -2015,8 +2213,8 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="158"/>
-      <c r="B20" s="161"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="195"/>
       <c r="C20" s="17" t="s">
         <v>24</v>
       </c>
@@ -2048,8 +2246,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="158"/>
-      <c r="B21" s="161"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="195"/>
       <c r="C21" s="17" t="s">
         <v>30</v>
       </c>
@@ -2077,8 +2275,8 @@
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="174"/>
-      <c r="B22" s="172"/>
+      <c r="A22" s="208"/>
+      <c r="B22" s="206"/>
       <c r="C22" s="22" t="s">
         <v>31</v>
       </c>
@@ -2106,10 +2304,10 @@
       <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="180">
+      <c r="A23" s="214">
         <v>44144</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="212" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2141,8 +2339,8 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="181"/>
-      <c r="B24" s="179"/>
+      <c r="A24" s="215"/>
+      <c r="B24" s="213"/>
       <c r="C24" s="20" t="s">
         <v>33</v>
       </c>
@@ -2170,10 +2368,10 @@
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="173">
+      <c r="A25" s="207">
         <v>44146</v>
       </c>
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="205" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="60" t="s">
@@ -2203,8 +2401,8 @@
       <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="158"/>
-      <c r="B26" s="161"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="195"/>
       <c r="C26" s="60" t="s">
         <v>37</v>
       </c>
@@ -2232,8 +2430,8 @@
       <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="158"/>
-      <c r="B27" s="161"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="60" t="s">
         <v>38</v>
       </c>
@@ -2258,13 +2456,13 @@
         <v>550000</v>
       </c>
       <c r="K27" s="54"/>
-      <c r="L27" s="160" t="s">
+      <c r="L27" s="194" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="159"/>
-      <c r="B28" s="162"/>
+      <c r="A28" s="193"/>
+      <c r="B28" s="196"/>
       <c r="C28" s="60" t="s">
         <v>39</v>
       </c>
@@ -2289,7 +2487,7 @@
         <v>225000</v>
       </c>
       <c r="K28" s="54"/>
-      <c r="L28" s="162"/>
+      <c r="L28" s="196"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
@@ -2325,10 +2523,10 @@
       <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="157">
+      <c r="A30" s="191">
         <v>44149</v>
       </c>
-      <c r="B30" s="160" t="s">
+      <c r="B30" s="194" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -2358,8 +2556,8 @@
       <c r="L30" s="60"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="159"/>
-      <c r="B31" s="162"/>
+      <c r="A31" s="193"/>
+      <c r="B31" s="196"/>
       <c r="C31" s="60" t="s">
         <v>38</v>
       </c>
@@ -2390,10 +2588,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="157">
+      <c r="A32" s="191">
         <v>44151</v>
       </c>
-      <c r="B32" s="160" t="s">
+      <c r="B32" s="194" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -2423,8 +2621,8 @@
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="158"/>
-      <c r="B33" s="161"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="195"/>
       <c r="C33" s="15" t="s">
         <v>45</v>
       </c>
@@ -2452,8 +2650,8 @@
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="159"/>
-      <c r="B34" s="162"/>
+      <c r="A34" s="193"/>
+      <c r="B34" s="196"/>
       <c r="C34" s="15" t="s">
         <v>46</v>
       </c>
@@ -2547,10 +2745,10 @@
       <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="157">
+      <c r="A37" s="191">
         <v>44156</v>
       </c>
-      <c r="B37" s="160" t="s">
+      <c r="B37" s="194" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -2583,8 +2781,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="159"/>
-      <c r="B38" s="162"/>
+      <c r="A38" s="193"/>
+      <c r="B38" s="196"/>
       <c r="C38" s="15" t="s">
         <v>38</v>
       </c>
@@ -2615,7 +2813,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="157">
+      <c r="A39" s="191">
         <v>44160</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -2648,7 +2846,7 @@
       <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="159"/>
+      <c r="A40" s="193"/>
       <c r="B40" s="15" t="s">
         <v>20</v>
       </c>
@@ -2680,10 +2878,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="157">
+      <c r="A41" s="191">
         <v>44161</v>
       </c>
-      <c r="B41" s="160" t="s">
+      <c r="B41" s="194" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -2713,8 +2911,8 @@
       <c r="L41" s="15"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="158"/>
-      <c r="B42" s="161"/>
+      <c r="A42" s="192"/>
+      <c r="B42" s="195"/>
       <c r="C42" s="15" t="s">
         <v>29</v>
       </c>
@@ -2742,8 +2940,8 @@
       <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="158"/>
-      <c r="B43" s="161"/>
+      <c r="A43" s="192"/>
+      <c r="B43" s="195"/>
       <c r="C43" s="15" t="s">
         <v>39</v>
       </c>
@@ -2771,8 +2969,8 @@
       <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="158"/>
-      <c r="B44" s="161"/>
+      <c r="A44" s="192"/>
+      <c r="B44" s="195"/>
       <c r="C44" s="15" t="s">
         <v>51</v>
       </c>
@@ -2800,8 +2998,8 @@
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="158"/>
-      <c r="B45" s="162"/>
+      <c r="A45" s="192"/>
+      <c r="B45" s="196"/>
       <c r="C45" s="15" t="s">
         <v>26</v>
       </c>
@@ -2831,7 +3029,7 @@
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="159"/>
+      <c r="A46" s="193"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
       </c>
@@ -2930,10 +3128,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="157">
+      <c r="A49" s="191">
         <v>44165</v>
       </c>
-      <c r="B49" s="160" t="s">
+      <c r="B49" s="194" t="s">
         <v>27</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -2963,8 +3161,8 @@
       <c r="L49" s="15"/>
     </row>
     <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="158"/>
-      <c r="B50" s="161"/>
+      <c r="A50" s="192"/>
+      <c r="B50" s="195"/>
       <c r="C50" s="15" t="s">
         <v>49</v>
       </c>
@@ -2993,8 +3191,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="158"/>
-      <c r="B51" s="161"/>
+      <c r="A51" s="192"/>
+      <c r="B51" s="195"/>
       <c r="C51" s="15" t="s">
         <v>55</v>
       </c>
@@ -3022,8 +3220,8 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="158"/>
-      <c r="B52" s="161"/>
+      <c r="A52" s="192"/>
+      <c r="B52" s="195"/>
       <c r="C52" s="15" t="s">
         <v>38</v>
       </c>
@@ -3052,8 +3250,8 @@
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="159"/>
-      <c r="B53" s="162"/>
+      <c r="A53" s="193"/>
+      <c r="B53" s="196"/>
       <c r="C53" s="15" t="s">
         <v>21</v>
       </c>
@@ -3261,7 +3459,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
-      <c r="L66" s="163"/>
+      <c r="L66" s="197"/>
     </row>
     <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
@@ -3275,7 +3473,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
-      <c r="L67" s="163"/>
+      <c r="L67" s="197"/>
     </row>
     <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
@@ -3289,7 +3487,7 @@
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
-      <c r="L68" s="163"/>
+      <c r="L68" s="197"/>
     </row>
     <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
@@ -3303,7 +3501,7 @@
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18"/>
-      <c r="L69" s="163"/>
+      <c r="L69" s="197"/>
     </row>
     <row r="70" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
@@ -3317,7 +3515,7 @@
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
       <c r="K70" s="18"/>
-      <c r="L70" s="163"/>
+      <c r="L70" s="197"/>
     </row>
     <row r="71" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
@@ -3331,7 +3529,7 @@
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
-      <c r="L71" s="163"/>
+      <c r="L71" s="197"/>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
@@ -3373,7 +3571,7 @@
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
-      <c r="L74" s="163"/>
+      <c r="L74" s="197"/>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
@@ -3387,7 +3585,7 @@
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
       <c r="K75" s="18"/>
-      <c r="L75" s="163"/>
+      <c r="L75" s="197"/>
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
@@ -3401,7 +3599,7 @@
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="K76" s="18"/>
-      <c r="L76" s="163"/>
+      <c r="L76" s="197"/>
     </row>
     <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
@@ -3768,11 +3966,11 @@
       <c r="L102" s="22"/>
     </row>
     <row r="103" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="164" t="s">
+      <c r="A103" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="164"/>
-      <c r="C103" s="164"/>
+      <c r="B103" s="198"/>
+      <c r="C103" s="198"/>
       <c r="D103" s="39">
         <f>SUM(D9:D102)</f>
         <v>48</v>
@@ -3863,23 +4061,23 @@
       <c r="F109" s="80"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B110" s="151" t="s">
+      <c r="B110" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="C110" s="152"/>
-      <c r="D110" s="152"/>
-      <c r="E110" s="153"/>
+      <c r="C110" s="186"/>
+      <c r="D110" s="186"/>
+      <c r="E110" s="187"/>
       <c r="F110" s="77">
         <v>3000000</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B111" s="151" t="s">
+      <c r="B111" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="152"/>
-      <c r="D111" s="152"/>
-      <c r="E111" s="153"/>
+      <c r="C111" s="186"/>
+      <c r="D111" s="186"/>
+      <c r="E111" s="187"/>
       <c r="F111" s="77">
         <v>721000</v>
       </c>
@@ -3887,12 +4085,12 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
-      <c r="B112" s="151" t="s">
+      <c r="B112" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="C112" s="152"/>
-      <c r="D112" s="152"/>
-      <c r="E112" s="153"/>
+      <c r="C112" s="186"/>
+      <c r="D112" s="186"/>
+      <c r="E112" s="187"/>
       <c r="F112" s="77">
         <v>910000</v>
       </c>
@@ -3903,45 +4101,45 @@
       <c r="K112" s="14"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="151" t="s">
+      <c r="B113" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="C113" s="152"/>
-      <c r="D113" s="152"/>
-      <c r="E113" s="153"/>
+      <c r="C113" s="186"/>
+      <c r="D113" s="186"/>
+      <c r="E113" s="187"/>
       <c r="F113" s="77">
         <v>300000</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="151" t="s">
+      <c r="B114" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="C114" s="152"/>
-      <c r="D114" s="152"/>
-      <c r="E114" s="153"/>
+      <c r="C114" s="186"/>
+      <c r="D114" s="186"/>
+      <c r="E114" s="187"/>
       <c r="F114" s="77">
         <v>235000</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="151" t="s">
+      <c r="B115" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="C115" s="152"/>
-      <c r="D115" s="152"/>
-      <c r="E115" s="153"/>
+      <c r="C115" s="186"/>
+      <c r="D115" s="186"/>
+      <c r="E115" s="187"/>
       <c r="F115" s="77">
         <v>2223000</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="154" t="s">
+      <c r="B116" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="155"/>
-      <c r="D116" s="155"/>
-      <c r="E116" s="156"/>
+      <c r="C116" s="189"/>
+      <c r="D116" s="189"/>
+      <c r="E116" s="190"/>
       <c r="F116" s="79">
         <f>SUM(F110:F115)</f>
         <v>7389000</v>
@@ -4039,7 +4237,7 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:F69"/>
+      <selection activeCell="B61" sqref="B61:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4091,122 +4289,122 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="220" t="s">
+      <c r="A4" s="254" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
+      <c r="A5" s="211"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="221" t="s">
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="255" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="221"/>
-      <c r="L6" s="167" t="s">
+      <c r="K6" s="255"/>
+      <c r="L6" s="201" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="165"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166" t="s">
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="212" t="s">
+      <c r="E7" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="212" t="s">
+      <c r="F7" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="212" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="212" t="s">
+      <c r="J7" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="212" t="s">
+      <c r="K7" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="167"/>
+      <c r="L7" s="201"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="165"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="G8" s="94" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="167"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="201"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="113">
@@ -4218,7 +4416,7 @@
       <c r="C9" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="121">
+      <c r="D9" s="120">
         <v>1</v>
       </c>
       <c r="E9" s="101">
@@ -4251,7 +4449,7 @@
       <c r="C10" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="121">
+      <c r="D10" s="120">
         <v>1</v>
       </c>
       <c r="E10" s="101">
@@ -4284,7 +4482,7 @@
       <c r="C11" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="121">
+      <c r="D11" s="120">
         <v>1</v>
       </c>
       <c r="E11" s="101">
@@ -4310,16 +4508,16 @@
       <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="194">
+      <c r="A12" s="228">
         <v>44170</v>
       </c>
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="230" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="121">
         <v>4</v>
       </c>
       <c r="E12" s="105">
@@ -4345,12 +4543,12 @@
       <c r="L12" s="104"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="195"/>
-      <c r="B13" s="197"/>
+      <c r="A13" s="229"/>
+      <c r="B13" s="231"/>
       <c r="C13" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="124">
+      <c r="D13" s="123">
         <v>1</v>
       </c>
       <c r="E13" s="111">
@@ -4385,7 +4583,7 @@
       <c r="C14" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="121">
+      <c r="D14" s="120">
         <v>1</v>
       </c>
       <c r="E14" s="101">
@@ -4409,16 +4607,16 @@
       <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="213">
+      <c r="A15" s="247">
         <v>44172</v>
       </c>
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="234" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="122">
+      <c r="D15" s="121">
         <v>1</v>
       </c>
       <c r="E15" s="105">
@@ -4444,12 +4642,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="214"/>
-      <c r="B16" s="202"/>
+      <c r="A16" s="248"/>
+      <c r="B16" s="236"/>
       <c r="C16" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="122">
         <v>1</v>
       </c>
       <c r="E16" s="108">
@@ -4473,12 +4671,12 @@
       <c r="L16" s="115"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="215"/>
-      <c r="B17" s="201"/>
+      <c r="A17" s="249"/>
+      <c r="B17" s="235"/>
       <c r="C17" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="124">
+      <c r="D17" s="123">
         <v>1</v>
       </c>
       <c r="E17" s="111">
@@ -4502,16 +4700,16 @@
       <c r="L17" s="116"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="194">
+      <c r="A18" s="228">
         <v>44173</v>
       </c>
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="250" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="122">
+      <c r="D18" s="121">
         <v>1</v>
       </c>
       <c r="E18" s="105">
@@ -4535,12 +4733,12 @@
       <c r="L18" s="104"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="204"/>
-      <c r="B19" s="217"/>
+      <c r="A19" s="238"/>
+      <c r="B19" s="251"/>
       <c r="C19" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="122">
         <v>1</v>
       </c>
       <c r="E19" s="108">
@@ -4566,12 +4764,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="195"/>
-      <c r="B20" s="218"/>
+      <c r="A20" s="229"/>
+      <c r="B20" s="252"/>
       <c r="C20" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="124">
+      <c r="D20" s="123">
         <v>4</v>
       </c>
       <c r="E20" s="111">
@@ -4594,10 +4792,10 @@
         <f>I20</f>
         <v>1000000</v>
       </c>
-      <c r="L20" s="119"/>
+      <c r="L20" s="118"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="120">
+      <c r="A21" s="119">
         <v>44174</v>
       </c>
       <c r="B21" s="100" t="s">
@@ -4606,7 +4804,7 @@
       <c r="C21" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="121">
+      <c r="D21" s="120">
         <v>1</v>
       </c>
       <c r="E21" s="101">
@@ -4630,16 +4828,16 @@
       <c r="L21" s="100"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="209">
+      <c r="A22" s="243">
         <v>44175</v>
       </c>
-      <c r="B22" s="206" t="s">
+      <c r="B22" s="240" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="122">
+      <c r="D22" s="121">
         <v>2</v>
       </c>
       <c r="E22" s="105">
@@ -4665,12 +4863,12 @@
       <c r="L22" s="104"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="210"/>
-      <c r="B23" s="207"/>
+      <c r="A23" s="244"/>
+      <c r="B23" s="241"/>
       <c r="C23" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="122">
         <v>1</v>
       </c>
       <c r="E23" s="108">
@@ -4694,12 +4892,12 @@
       <c r="L23" s="107"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="210"/>
-      <c r="B24" s="207"/>
+      <c r="A24" s="244"/>
+      <c r="B24" s="241"/>
       <c r="C24" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="122">
         <v>1</v>
       </c>
       <c r="E24" s="108">
@@ -4723,12 +4921,12 @@
       <c r="L24" s="107"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="210"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="241"/>
       <c r="C25" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="123">
+      <c r="D25" s="122">
         <v>1</v>
       </c>
       <c r="E25" s="108">
@@ -4752,12 +4950,12 @@
       <c r="L25" s="107"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="210"/>
-      <c r="B26" s="207"/>
+      <c r="A26" s="244"/>
+      <c r="B26" s="241"/>
       <c r="C26" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="123">
+      <c r="D26" s="122">
         <v>1</v>
       </c>
       <c r="E26" s="108">
@@ -4781,12 +4979,12 @@
       <c r="L26" s="107"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="210"/>
-      <c r="B27" s="207"/>
+      <c r="A27" s="244"/>
+      <c r="B27" s="241"/>
       <c r="C27" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="123">
+      <c r="D27" s="122">
         <v>3</v>
       </c>
       <c r="E27" s="108">
@@ -4812,12 +5010,12 @@
       <c r="L27" s="107"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="210"/>
-      <c r="B28" s="207"/>
+      <c r="A28" s="244"/>
+      <c r="B28" s="241"/>
       <c r="C28" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="123">
+      <c r="D28" s="122">
         <v>2</v>
       </c>
       <c r="E28" s="108">
@@ -4841,12 +5039,12 @@
       <c r="L28" s="107"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="210"/>
-      <c r="B29" s="207"/>
+      <c r="A29" s="244"/>
+      <c r="B29" s="241"/>
       <c r="C29" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="123">
+      <c r="D29" s="122">
         <v>1</v>
       </c>
       <c r="E29" s="108">
@@ -4872,12 +5070,12 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="211"/>
-      <c r="B30" s="208"/>
+      <c r="A30" s="245"/>
+      <c r="B30" s="242"/>
       <c r="C30" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="124">
+      <c r="D30" s="123">
         <v>1</v>
       </c>
       <c r="E30" s="111">
@@ -4903,16 +5101,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="194">
+      <c r="A31" s="228">
         <v>44178</v>
       </c>
-      <c r="B31" s="200" t="s">
+      <c r="B31" s="234" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="122">
+      <c r="D31" s="121">
         <v>2</v>
       </c>
       <c r="E31" s="105">
@@ -4938,12 +5136,12 @@
       <c r="L31" s="104"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="195"/>
-      <c r="B32" s="201"/>
+      <c r="A32" s="229"/>
+      <c r="B32" s="235"/>
       <c r="C32" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="124">
+      <c r="D32" s="123">
         <v>1</v>
       </c>
       <c r="E32" s="111">
@@ -4969,7 +5167,7 @@
       <c r="L32" s="110"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="120">
+      <c r="A33" s="119">
         <v>44179</v>
       </c>
       <c r="B33" s="100" t="s">
@@ -4978,7 +5176,7 @@
       <c r="C33" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="121">
+      <c r="D33" s="120">
         <v>1</v>
       </c>
       <c r="E33" s="101">
@@ -5002,7 +5200,7 @@
       <c r="L33" s="100"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="120">
+      <c r="A34" s="119">
         <v>44180</v>
       </c>
       <c r="B34" s="100" t="s">
@@ -5011,7 +5209,7 @@
       <c r="C34" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="121">
+      <c r="D34" s="120">
         <v>1</v>
       </c>
       <c r="E34" s="101">
@@ -5035,7 +5233,7 @@
       <c r="L34" s="100"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="120">
+      <c r="A35" s="119">
         <v>44181</v>
       </c>
       <c r="B35" s="100" t="s">
@@ -5044,7 +5242,7 @@
       <c r="C35" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="121">
+      <c r="D35" s="120">
         <v>1</v>
       </c>
       <c r="E35" s="101">
@@ -5068,7 +5266,7 @@
       <c r="L35" s="100"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="120">
+      <c r="A36" s="119">
         <v>44182</v>
       </c>
       <c r="B36" s="100" t="s">
@@ -5077,7 +5275,7 @@
       <c r="C36" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="121">
+      <c r="D36" s="120">
         <v>1</v>
       </c>
       <c r="E36" s="101">
@@ -5101,7 +5299,7 @@
       <c r="L36" s="100"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="120">
+      <c r="A37" s="119">
         <v>44183</v>
       </c>
       <c r="B37" s="100" t="s">
@@ -5110,7 +5308,7 @@
       <c r="C37" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="121">
+      <c r="D37" s="120">
         <v>1</v>
       </c>
       <c r="E37" s="101">
@@ -5134,16 +5332,16 @@
       <c r="L37" s="100"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="194">
+      <c r="A38" s="228">
         <v>44184</v>
       </c>
-      <c r="B38" s="200" t="s">
+      <c r="B38" s="234" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="122">
+      <c r="D38" s="121">
         <v>2</v>
       </c>
       <c r="E38" s="105">
@@ -5169,12 +5367,12 @@
       <c r="L38" s="104"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="204"/>
-      <c r="B39" s="202"/>
+      <c r="A39" s="238"/>
+      <c r="B39" s="236"/>
       <c r="C39" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="123">
+      <c r="D39" s="122">
         <v>1</v>
       </c>
       <c r="E39" s="108">
@@ -5198,12 +5396,12 @@
       <c r="L39" s="107"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="204"/>
-      <c r="B40" s="202"/>
+      <c r="A40" s="238"/>
+      <c r="B40" s="236"/>
       <c r="C40" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="123">
+      <c r="D40" s="122">
         <v>1</v>
       </c>
       <c r="E40" s="108">
@@ -5229,12 +5427,12 @@
       <c r="L40" s="107"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="204"/>
-      <c r="B41" s="202"/>
+      <c r="A41" s="238"/>
+      <c r="B41" s="236"/>
       <c r="C41" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="123">
+      <c r="D41" s="122">
         <v>1</v>
       </c>
       <c r="E41" s="108">
@@ -5258,43 +5456,43 @@
       <c r="L41" s="107"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="205"/>
-      <c r="B42" s="203"/>
-      <c r="C42" s="132" t="s">
+      <c r="A42" s="239"/>
+      <c r="B42" s="237"/>
+      <c r="C42" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="133">
+      <c r="D42" s="132">
         <v>2</v>
       </c>
-      <c r="E42" s="134">
+      <c r="E42" s="133">
         <v>455000</v>
       </c>
-      <c r="F42" s="134">
+      <c r="F42" s="133">
         <f t="shared" si="0"/>
         <v>910000</v>
       </c>
-      <c r="G42" s="134"/>
-      <c r="H42" s="135">
+      <c r="G42" s="133"/>
+      <c r="H42" s="134">
         <v>0.41</v>
       </c>
-      <c r="I42" s="134">
+      <c r="I42" s="133">
         <f>F42*(1-H42)</f>
         <v>536900.00000000012</v>
       </c>
-      <c r="J42" s="134">
+      <c r="J42" s="133">
         <f>I42</f>
         <v>536900.00000000012</v>
       </c>
-      <c r="K42" s="134"/>
-      <c r="L42" s="132"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="131"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="195"/>
-      <c r="B43" s="201"/>
+      <c r="A43" s="229"/>
+      <c r="B43" s="235"/>
       <c r="C43" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="124">
+      <c r="D43" s="123">
         <v>1</v>
       </c>
       <c r="E43" s="111">
@@ -5318,7 +5516,7 @@
       <c r="L43" s="110"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="120">
+      <c r="A44" s="119">
         <v>44185</v>
       </c>
       <c r="B44" s="100" t="s">
@@ -5327,7 +5525,7 @@
       <c r="C44" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="121">
+      <c r="D44" s="120">
         <v>1</v>
       </c>
       <c r="E44" s="101">
@@ -5351,16 +5549,16 @@
       <c r="L44" s="100"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="194">
+      <c r="A45" s="228">
         <v>44187</v>
       </c>
-      <c r="B45" s="200" t="s">
+      <c r="B45" s="234" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="122">
+      <c r="D45" s="121">
         <v>1</v>
       </c>
       <c r="E45" s="105">
@@ -5384,12 +5582,12 @@
       <c r="L45" s="104"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="195"/>
-      <c r="B46" s="201"/>
+      <c r="A46" s="229"/>
+      <c r="B46" s="235"/>
       <c r="C46" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="124">
+      <c r="D46" s="123">
         <v>1</v>
       </c>
       <c r="E46" s="111">
@@ -5413,16 +5611,16 @@
       <c r="L46" s="110"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="194">
+      <c r="A47" s="228">
         <v>44190</v>
       </c>
-      <c r="B47" s="200" t="s">
+      <c r="B47" s="234" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="122">
+      <c r="D47" s="121">
         <v>1</v>
       </c>
       <c r="E47" s="105">
@@ -5448,12 +5646,12 @@
       <c r="L47" s="104"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="195"/>
-      <c r="B48" s="201"/>
+      <c r="A48" s="229"/>
+      <c r="B48" s="235"/>
       <c r="C48" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="124">
+      <c r="D48" s="123">
         <v>1</v>
       </c>
       <c r="E48" s="111">
@@ -5477,16 +5675,16 @@
       <c r="L48" s="110"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="194">
+      <c r="A49" s="228">
         <v>44193</v>
       </c>
-      <c r="B49" s="200" t="s">
+      <c r="B49" s="234" t="s">
         <v>75</v>
       </c>
       <c r="C49" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="122">
+      <c r="D49" s="121">
         <v>1</v>
       </c>
       <c r="E49" s="105">
@@ -5510,12 +5708,12 @@
       <c r="L49" s="104"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="195"/>
-      <c r="B50" s="201"/>
+      <c r="A50" s="229"/>
+      <c r="B50" s="235"/>
       <c r="C50" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="124">
+      <c r="D50" s="123">
         <v>1</v>
       </c>
       <c r="E50" s="111">
@@ -5539,16 +5737,16 @@
       <c r="L50" s="110"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="194">
+      <c r="A51" s="228">
         <v>44194</v>
       </c>
-      <c r="B51" s="200" t="s">
+      <c r="B51" s="234" t="s">
         <v>75</v>
       </c>
       <c r="C51" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="122">
+      <c r="D51" s="121">
         <v>1</v>
       </c>
       <c r="E51" s="105">
@@ -5574,12 +5772,12 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="195"/>
-      <c r="B52" s="201"/>
+      <c r="A52" s="229"/>
+      <c r="B52" s="235"/>
       <c r="C52" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="124">
+      <c r="D52" s="123">
         <v>1</v>
       </c>
       <c r="E52" s="111">
@@ -5603,7 +5801,7 @@
       <c r="L52" s="110"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="125">
+      <c r="A53" s="124">
         <v>44195</v>
       </c>
       <c r="B53" s="104" t="s">
@@ -5612,7 +5810,7 @@
       <c r="C53" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="122">
+      <c r="D53" s="121">
         <v>1</v>
       </c>
       <c r="E53" s="105">
@@ -5638,7 +5836,7 @@
       <c r="L53" s="104"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="126">
+      <c r="A54" s="125">
         <v>44196</v>
       </c>
       <c r="B54" s="110" t="s">
@@ -5647,7 +5845,7 @@
       <c r="C54" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="124">
+      <c r="D54" s="123">
         <v>1</v>
       </c>
       <c r="E54" s="111">
@@ -5670,49 +5868,49 @@
       <c r="K54" s="111"/>
       <c r="L54" s="110"/>
     </row>
-    <row r="55" spans="1:12" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="191" t="s">
+    <row r="55" spans="1:12" s="130" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="192"/>
-      <c r="C55" s="193"/>
-      <c r="D55" s="127">
+      <c r="B55" s="226"/>
+      <c r="C55" s="227"/>
+      <c r="D55" s="126">
         <f>SUM(D9:D54)</f>
         <v>59</v>
       </c>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128">
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
+      <c r="G55" s="127">
         <f>SUM(G9:G54)</f>
         <v>240000</v>
       </c>
-      <c r="H55" s="129"/>
-      <c r="I55" s="128">
+      <c r="H55" s="128"/>
+      <c r="I55" s="127">
         <f>SUM(I9:I54)</f>
         <v>20406550</v>
       </c>
-      <c r="J55" s="128">
+      <c r="J55" s="127">
         <f>SUM(J9:J54)</f>
         <v>18109800</v>
       </c>
-      <c r="K55" s="128">
+      <c r="K55" s="127">
         <f>SUM(K9:K54)</f>
         <v>2296750</v>
       </c>
-      <c r="L55" s="130"/>
+      <c r="L55" s="129"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="198" t="s">
+      <c r="A56" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="198"/>
-      <c r="C56" s="198"/>
-      <c r="D56" s="198"/>
-      <c r="E56" s="198"/>
-      <c r="F56" s="198"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="136">
+      <c r="B56" s="232"/>
+      <c r="C56" s="232"/>
+      <c r="D56" s="232"/>
+      <c r="E56" s="232"/>
+      <c r="F56" s="232"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="135">
         <v>4897000</v>
       </c>
       <c r="J56" s="105"/>
@@ -5720,174 +5918,174 @@
       <c r="L56" s="104"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="199" t="s">
+      <c r="A57" s="233" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="199"/>
-      <c r="C57" s="199"/>
-      <c r="D57" s="199"/>
-      <c r="E57" s="199"/>
-      <c r="F57" s="199"/>
-      <c r="G57" s="138"/>
-      <c r="H57" s="139"/>
-      <c r="I57" s="138">
+      <c r="B57" s="233"/>
+      <c r="C57" s="233"/>
+      <c r="D57" s="233"/>
+      <c r="E57" s="233"/>
+      <c r="F57" s="233"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="137">
         <f>SUM(I55:I56)</f>
         <v>25303550</v>
       </c>
-      <c r="J57" s="140"/>
-      <c r="K57" s="140"/>
-      <c r="L57" s="141"/>
+      <c r="J57" s="139"/>
+      <c r="K57" s="139"/>
+      <c r="L57" s="140"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="148"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="149"/>
-      <c r="E59" s="150"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="149"/>
+      <c r="F59" s="149"/>
+      <c r="G59" s="149"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="74"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="75"/>
-      <c r="B61" s="142" t="s">
+      <c r="B61" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="145">
+      <c r="C61" s="142"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="144">
         <f>I57</f>
         <v>25303550</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="75"/>
-      <c r="B62" s="142" t="s">
+      <c r="B62" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="143"/>
-      <c r="D62" s="143"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="145" t="s">
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="G62" s="185">
+      <c r="G62" s="219">
         <v>24695550</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="75"/>
-      <c r="B63" s="188" t="s">
+      <c r="B63" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="189"/>
-      <c r="D63" s="189"/>
-      <c r="E63" s="190"/>
-      <c r="F63" s="145">
+      <c r="C63" s="223"/>
+      <c r="D63" s="223"/>
+      <c r="E63" s="224"/>
+      <c r="F63" s="144">
         <f>I11+I13+I40+I42</f>
         <v>1398300.0000000005</v>
       </c>
-      <c r="G63" s="186"/>
-      <c r="J63" s="146"/>
+      <c r="G63" s="220"/>
+      <c r="J63" s="145"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="182" t="s">
+      <c r="B64" s="216" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="183"/>
-      <c r="D64" s="183"/>
-      <c r="E64" s="184"/>
-      <c r="F64" s="145">
+      <c r="C64" s="217"/>
+      <c r="D64" s="217"/>
+      <c r="E64" s="218"/>
+      <c r="F64" s="144">
         <v>16160000</v>
       </c>
-      <c r="G64" s="186"/>
+      <c r="G64" s="220"/>
       <c r="J64" s="97"/>
       <c r="K64" s="97"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="142" t="s">
+      <c r="B65" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="143"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="145">
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="144">
         <v>3230000</v>
       </c>
-      <c r="G65" s="186"/>
-      <c r="J65" s="146"/>
+      <c r="G65" s="220"/>
+      <c r="J65" s="145"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="142" t="s">
+      <c r="B66" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="143"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="144"/>
-      <c r="F66" s="145">
+      <c r="C66" s="142"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="144">
         <v>829000</v>
       </c>
-      <c r="G66" s="186"/>
-      <c r="J66" s="146"/>
+      <c r="G66" s="220"/>
+      <c r="J66" s="145"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="182" t="s">
+      <c r="B67" s="216" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="183"/>
-      <c r="D67" s="183"/>
-      <c r="E67" s="184"/>
-      <c r="F67" s="145">
+      <c r="C67" s="217"/>
+      <c r="D67" s="217"/>
+      <c r="E67" s="218"/>
+      <c r="F67" s="144">
         <v>288000</v>
       </c>
-      <c r="G67" s="186"/>
-      <c r="J67" s="146"/>
+      <c r="G67" s="220"/>
+      <c r="J67" s="145"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="142" t="s">
+      <c r="B68" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="143"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="145">
+      <c r="C68" s="142"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="144">
         <v>79000</v>
       </c>
-      <c r="G68" s="186"/>
-      <c r="J68" s="146"/>
+      <c r="G68" s="220"/>
+      <c r="J68" s="145"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="182" t="s">
+      <c r="B69" s="216" t="s">
         <v>103</v>
       </c>
-      <c r="C69" s="183"/>
-      <c r="D69" s="183"/>
-      <c r="E69" s="184"/>
-      <c r="F69" s="145">
+      <c r="C69" s="217"/>
+      <c r="D69" s="217"/>
+      <c r="E69" s="218"/>
+      <c r="F69" s="144">
         <v>1628000</v>
       </c>
-      <c r="G69" s="187"/>
+      <c r="G69" s="221"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="148"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="150"/>
+      <c r="B71" s="147"/>
+      <c r="C71" s="147"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="149"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="91" t="s">
         <v>107</v>
       </c>
       <c r="K72" s="97"/>
-      <c r="L72" s="147"/>
+      <c r="L72" s="146"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K74" s="97"/>
@@ -5949,22 +6147,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="225"/>
+    <col min="1" max="1" width="9.875" style="159" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="170"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="4.75" style="158" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="160" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="1"/>
       <c r="D1" s="5"/>
       <c r="E1" s="93"/>
@@ -5977,10 +6184,10 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="1"/>
       <c r="D2" s="5"/>
       <c r="E2" s="93"/>
@@ -5993,125 +6200,1582 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="220" t="s">
+      <c r="A4" s="254" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
+      <c r="A5" s="211"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="221" t="s">
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="255" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="221"/>
-      <c r="L6" s="167" t="s">
+      <c r="K6" s="255"/>
+      <c r="L6" s="201" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="224"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166" t="s">
+      <c r="A7" s="262"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="212" t="s">
+      <c r="E7" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="212" t="s">
+      <c r="F7" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="212" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="212" t="s">
+      <c r="J7" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="212" t="s">
+      <c r="K7" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="167"/>
+      <c r="L7" s="201"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="224"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="118" t="s">
+      <c r="A8" s="262"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="167"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="201"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="168">
+        <v>44197</v>
+      </c>
+      <c r="B9" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="161" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="161">
+        <v>1</v>
+      </c>
+      <c r="E9" s="162">
+        <v>340000</v>
+      </c>
+      <c r="F9" s="162">
+        <f>D9*E9</f>
+        <v>340000</v>
+      </c>
+      <c r="G9" s="161"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="162">
+        <f>F9</f>
+        <v>340000</v>
+      </c>
+      <c r="J9" s="164">
+        <f>I9</f>
+        <v>340000</v>
+      </c>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="168">
+        <v>44200</v>
+      </c>
+      <c r="B10" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="161">
+        <v>1</v>
+      </c>
+      <c r="E10" s="162">
+        <v>350000</v>
+      </c>
+      <c r="F10" s="162">
+        <f t="shared" ref="F10:F46" si="0">D10*E10</f>
+        <v>350000</v>
+      </c>
+      <c r="G10" s="161"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="162">
+        <f t="shared" ref="I10:I46" si="1">F10</f>
+        <v>350000</v>
+      </c>
+      <c r="J10" s="164">
+        <f t="shared" ref="J10:J43" si="2">I10</f>
+        <v>350000</v>
+      </c>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="256">
+        <v>44201</v>
+      </c>
+      <c r="B11" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="171" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="171">
+        <v>1</v>
+      </c>
+      <c r="E11" s="172">
+        <v>340000</v>
+      </c>
+      <c r="F11" s="172">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="G11" s="171"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="172">
+        <f t="shared" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="J11" s="174">
+        <f t="shared" si="2"/>
+        <v>340000</v>
+      </c>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="258"/>
+      <c r="B12" s="261"/>
+      <c r="C12" s="175" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="175">
+        <v>1</v>
+      </c>
+      <c r="E12" s="176">
+        <v>520000</v>
+      </c>
+      <c r="F12" s="176">
+        <f t="shared" si="0"/>
+        <v>520000</v>
+      </c>
+      <c r="G12" s="175"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="176">
+        <f t="shared" si="1"/>
+        <v>520000</v>
+      </c>
+      <c r="J12" s="178">
+        <f t="shared" si="2"/>
+        <v>520000</v>
+      </c>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="168">
+        <v>44202</v>
+      </c>
+      <c r="B13" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="161">
+        <v>1</v>
+      </c>
+      <c r="E13" s="162">
+        <v>485000</v>
+      </c>
+      <c r="F13" s="162">
+        <f t="shared" si="0"/>
+        <v>485000</v>
+      </c>
+      <c r="G13" s="161"/>
+      <c r="H13" s="163">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="162">
+        <f>F13*(1-H13)</f>
+        <v>460750</v>
+      </c>
+      <c r="J13" s="164">
+        <f t="shared" si="2"/>
+        <v>460750</v>
+      </c>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="256">
+        <v>44203</v>
+      </c>
+      <c r="B14" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="171">
+        <v>3</v>
+      </c>
+      <c r="E14" s="172">
+        <v>485000</v>
+      </c>
+      <c r="F14" s="172">
+        <f t="shared" si="0"/>
+        <v>1455000</v>
+      </c>
+      <c r="G14" s="171"/>
+      <c r="H14" s="173">
+        <v>0.05</v>
+      </c>
+      <c r="I14" s="172">
+        <f>F14*(1-H14)</f>
+        <v>1382250</v>
+      </c>
+      <c r="J14" s="174">
+        <f t="shared" si="2"/>
+        <v>1382250</v>
+      </c>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="257"/>
+      <c r="B15" s="260"/>
+      <c r="C15" s="179" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="179">
+        <v>1</v>
+      </c>
+      <c r="E15" s="180">
+        <v>230000</v>
+      </c>
+      <c r="F15" s="180">
+        <f t="shared" si="0"/>
+        <v>230000</v>
+      </c>
+      <c r="G15" s="179"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="180">
+        <f t="shared" si="1"/>
+        <v>230000</v>
+      </c>
+      <c r="J15" s="182">
+        <f t="shared" si="2"/>
+        <v>230000</v>
+      </c>
+      <c r="K15" s="182"/>
+      <c r="L15" s="179"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="258"/>
+      <c r="B16" s="261"/>
+      <c r="C16" s="175" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="175">
+        <v>1</v>
+      </c>
+      <c r="E16" s="176">
+        <v>235000</v>
+      </c>
+      <c r="F16" s="176">
+        <f t="shared" si="0"/>
+        <v>235000</v>
+      </c>
+      <c r="G16" s="175"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="176">
+        <f t="shared" si="1"/>
+        <v>235000</v>
+      </c>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178">
+        <f>I16</f>
+        <v>235000</v>
+      </c>
+      <c r="L16" s="175"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="256">
+        <v>44205</v>
+      </c>
+      <c r="B17" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="171" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="171">
+        <v>1</v>
+      </c>
+      <c r="E17" s="172">
+        <v>380000</v>
+      </c>
+      <c r="F17" s="172">
+        <f t="shared" si="0"/>
+        <v>380000</v>
+      </c>
+      <c r="G17" s="171"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="172">
+        <f t="shared" si="1"/>
+        <v>380000</v>
+      </c>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174">
+        <f t="shared" ref="K17:K20" si="3">I17</f>
+        <v>380000</v>
+      </c>
+      <c r="L17" s="171"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="258"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="175">
+        <v>1</v>
+      </c>
+      <c r="E18" s="176">
+        <v>340000</v>
+      </c>
+      <c r="F18" s="176">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="G18" s="175"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="176">
+        <f t="shared" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178">
+        <f t="shared" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="L18" s="175"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="256">
+        <v>44206</v>
+      </c>
+      <c r="B19" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="171">
+        <v>2</v>
+      </c>
+      <c r="E19" s="172">
+        <v>465000</v>
+      </c>
+      <c r="F19" s="172">
+        <f t="shared" si="0"/>
+        <v>930000</v>
+      </c>
+      <c r="G19" s="171"/>
+      <c r="H19" s="173">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="172">
+        <f>F19*(1-H19)</f>
+        <v>837000</v>
+      </c>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174">
+        <f t="shared" si="3"/>
+        <v>837000</v>
+      </c>
+      <c r="L19" s="171"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="258"/>
+      <c r="B20" s="261"/>
+      <c r="C20" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="175">
+        <v>1</v>
+      </c>
+      <c r="E20" s="176">
+        <v>340000</v>
+      </c>
+      <c r="F20" s="176">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="G20" s="175"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="176">
+        <f t="shared" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178">
+        <f t="shared" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="L20" s="175"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="256">
+        <v>44207</v>
+      </c>
+      <c r="B21" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="171">
+        <v>2</v>
+      </c>
+      <c r="E21" s="172">
+        <v>550000</v>
+      </c>
+      <c r="F21" s="172">
+        <f t="shared" si="0"/>
+        <v>1100000</v>
+      </c>
+      <c r="G21" s="171"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="172">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="J21" s="174">
+        <f t="shared" si="2"/>
+        <v>1100000</v>
+      </c>
+      <c r="K21" s="174"/>
+      <c r="L21" s="171"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="257"/>
+      <c r="B22" s="260"/>
+      <c r="C22" s="179" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="179">
+        <v>1</v>
+      </c>
+      <c r="E22" s="180">
+        <v>620000</v>
+      </c>
+      <c r="F22" s="180">
+        <f t="shared" si="0"/>
+        <v>620000</v>
+      </c>
+      <c r="G22" s="179"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="180">
+        <f t="shared" si="1"/>
+        <v>620000</v>
+      </c>
+      <c r="J22" s="182">
+        <f t="shared" si="2"/>
+        <v>620000</v>
+      </c>
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="257"/>
+      <c r="B23" s="260"/>
+      <c r="C23" s="179" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="179">
+        <v>1</v>
+      </c>
+      <c r="E23" s="180">
+        <v>465000</v>
+      </c>
+      <c r="F23" s="180">
+        <f t="shared" si="0"/>
+        <v>465000</v>
+      </c>
+      <c r="G23" s="179"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="180">
+        <f t="shared" si="1"/>
+        <v>465000</v>
+      </c>
+      <c r="J23" s="182">
+        <f t="shared" si="2"/>
+        <v>465000</v>
+      </c>
+      <c r="K23" s="179"/>
+      <c r="L23" s="179"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="258"/>
+      <c r="B24" s="261"/>
+      <c r="C24" s="175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="175">
+        <v>1</v>
+      </c>
+      <c r="E24" s="176">
+        <v>455000</v>
+      </c>
+      <c r="F24" s="176">
+        <f t="shared" si="0"/>
+        <v>455000</v>
+      </c>
+      <c r="G24" s="175"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="176">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
+      <c r="J24" s="178">
+        <f t="shared" si="2"/>
+        <v>455000</v>
+      </c>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="168">
+        <v>44208</v>
+      </c>
+      <c r="B25" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="161" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="161">
+        <v>1</v>
+      </c>
+      <c r="E25" s="162">
+        <v>340000</v>
+      </c>
+      <c r="F25" s="162">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="G25" s="161"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="162">
+        <f t="shared" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="J25" s="164">
+        <f t="shared" si="2"/>
+        <v>340000</v>
+      </c>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="168">
+        <v>44209</v>
+      </c>
+      <c r="B26" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="161">
+        <v>2</v>
+      </c>
+      <c r="E26" s="162">
+        <v>225000</v>
+      </c>
+      <c r="F26" s="162">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+      <c r="G26" s="161"/>
+      <c r="H26" s="163">
+        <v>0.05</v>
+      </c>
+      <c r="I26" s="162">
+        <f>F26*(1-H26)</f>
+        <v>427500</v>
+      </c>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164">
+        <f>I26</f>
+        <v>427500</v>
+      </c>
+      <c r="L26" s="161"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="256">
+        <v>44210</v>
+      </c>
+      <c r="B27" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="171" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="171">
+        <v>1</v>
+      </c>
+      <c r="E27" s="172">
+        <v>455000</v>
+      </c>
+      <c r="F27" s="172">
+        <f t="shared" si="0"/>
+        <v>455000</v>
+      </c>
+      <c r="G27" s="171"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="172">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
+      <c r="J27" s="174">
+        <f t="shared" si="2"/>
+        <v>455000</v>
+      </c>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="258"/>
+      <c r="B28" s="261"/>
+      <c r="C28" s="175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="175">
+        <v>1</v>
+      </c>
+      <c r="E28" s="176">
+        <v>455000</v>
+      </c>
+      <c r="F28" s="176">
+        <f t="shared" si="0"/>
+        <v>455000</v>
+      </c>
+      <c r="G28" s="175"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="176">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
+      <c r="J28" s="178">
+        <f t="shared" si="2"/>
+        <v>455000</v>
+      </c>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="256">
+        <v>44211</v>
+      </c>
+      <c r="B29" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="171" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="171">
+        <v>1</v>
+      </c>
+      <c r="E29" s="172">
+        <v>360000</v>
+      </c>
+      <c r="F29" s="172">
+        <f t="shared" si="0"/>
+        <v>360000</v>
+      </c>
+      <c r="G29" s="171"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="172">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+      <c r="J29" s="174">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="257"/>
+      <c r="B30" s="260"/>
+      <c r="C30" s="179" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="179">
+        <v>1</v>
+      </c>
+      <c r="E30" s="180">
+        <v>75000</v>
+      </c>
+      <c r="F30" s="180">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+      <c r="G30" s="179"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="180">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="J30" s="182">
+        <f t="shared" si="2"/>
+        <v>75000</v>
+      </c>
+      <c r="K30" s="179"/>
+      <c r="L30" s="179"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="258"/>
+      <c r="B31" s="261"/>
+      <c r="C31" s="175" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="175">
+        <v>1</v>
+      </c>
+      <c r="E31" s="176">
+        <v>220000</v>
+      </c>
+      <c r="F31" s="176">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+      <c r="G31" s="176">
+        <v>20000</v>
+      </c>
+      <c r="H31" s="177"/>
+      <c r="I31" s="176">
+        <f>F31-G31</f>
+        <v>200000</v>
+      </c>
+      <c r="J31" s="178">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="256">
+        <v>44212</v>
+      </c>
+      <c r="B32" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="171" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="171">
+        <v>1</v>
+      </c>
+      <c r="E32" s="172">
+        <v>542000</v>
+      </c>
+      <c r="F32" s="172">
+        <f t="shared" si="0"/>
+        <v>542000</v>
+      </c>
+      <c r="G32" s="171"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="172">
+        <f t="shared" si="1"/>
+        <v>542000</v>
+      </c>
+      <c r="J32" s="174">
+        <f t="shared" si="2"/>
+        <v>542000</v>
+      </c>
+      <c r="K32" s="171"/>
+      <c r="L32" s="171"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="258"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="175" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="175">
+        <v>1</v>
+      </c>
+      <c r="E33" s="176">
+        <v>380000</v>
+      </c>
+      <c r="F33" s="176">
+        <f t="shared" si="0"/>
+        <v>380000</v>
+      </c>
+      <c r="G33" s="175"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="176">
+        <f t="shared" si="1"/>
+        <v>380000</v>
+      </c>
+      <c r="J33" s="178">
+        <f t="shared" si="2"/>
+        <v>380000</v>
+      </c>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="256">
+        <v>44214</v>
+      </c>
+      <c r="B34" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="171" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="171">
+        <v>1</v>
+      </c>
+      <c r="E34" s="172">
+        <v>350000</v>
+      </c>
+      <c r="F34" s="172">
+        <f t="shared" si="0"/>
+        <v>350000</v>
+      </c>
+      <c r="G34" s="171"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="172">
+        <f t="shared" si="1"/>
+        <v>350000</v>
+      </c>
+      <c r="J34" s="174">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+      <c r="K34" s="171"/>
+      <c r="L34" s="171"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="258"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="175" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="175">
+        <v>1</v>
+      </c>
+      <c r="E35" s="176">
+        <v>380000</v>
+      </c>
+      <c r="F35" s="176">
+        <f t="shared" si="0"/>
+        <v>380000</v>
+      </c>
+      <c r="G35" s="175"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="176">
+        <f t="shared" si="1"/>
+        <v>380000</v>
+      </c>
+      <c r="J35" s="178">
+        <f t="shared" si="2"/>
+        <v>380000</v>
+      </c>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="168">
+        <v>44217</v>
+      </c>
+      <c r="B36" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="161" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="161">
+        <v>1</v>
+      </c>
+      <c r="E36" s="162">
+        <v>520000</v>
+      </c>
+      <c r="F36" s="162">
+        <f t="shared" si="0"/>
+        <v>520000</v>
+      </c>
+      <c r="G36" s="161"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="162">
+        <f t="shared" si="1"/>
+        <v>520000</v>
+      </c>
+      <c r="J36" s="164">
+        <f t="shared" si="2"/>
+        <v>520000</v>
+      </c>
+      <c r="K36" s="161"/>
+      <c r="L36" s="161"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="256">
+        <v>44219</v>
+      </c>
+      <c r="B37" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="171">
+        <v>1</v>
+      </c>
+      <c r="E37" s="172">
+        <v>550000</v>
+      </c>
+      <c r="F37" s="172">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+      <c r="G37" s="171"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="172">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+      <c r="J37" s="174">
+        <f t="shared" si="2"/>
+        <v>550000</v>
+      </c>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="258"/>
+      <c r="B38" s="184" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="175" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="175">
+        <v>1</v>
+      </c>
+      <c r="E38" s="176">
+        <v>225000</v>
+      </c>
+      <c r="F38" s="176">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+      <c r="G38" s="175"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="176">
+        <f t="shared" si="1"/>
+        <v>225000</v>
+      </c>
+      <c r="J38" s="178">
+        <f t="shared" si="2"/>
+        <v>225000</v>
+      </c>
+      <c r="K38" s="175"/>
+      <c r="L38" s="175"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="168">
+        <v>44220</v>
+      </c>
+      <c r="B39" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="161">
+        <v>1</v>
+      </c>
+      <c r="E39" s="162">
+        <v>485000</v>
+      </c>
+      <c r="F39" s="162">
+        <f t="shared" si="0"/>
+        <v>485000</v>
+      </c>
+      <c r="G39" s="161"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="162">
+        <f t="shared" si="1"/>
+        <v>485000</v>
+      </c>
+      <c r="J39" s="164"/>
+      <c r="K39" s="164">
+        <f>I39</f>
+        <v>485000</v>
+      </c>
+      <c r="L39" s="161"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="168">
+        <v>44221</v>
+      </c>
+      <c r="B40" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="161" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="161">
+        <v>1</v>
+      </c>
+      <c r="E40" s="162">
+        <v>380000</v>
+      </c>
+      <c r="F40" s="162">
+        <f t="shared" si="0"/>
+        <v>380000</v>
+      </c>
+      <c r="G40" s="161"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="162">
+        <f t="shared" si="1"/>
+        <v>380000</v>
+      </c>
+      <c r="J40" s="164">
+        <f t="shared" si="2"/>
+        <v>380000</v>
+      </c>
+      <c r="K40" s="161"/>
+      <c r="L40" s="161"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="256">
+        <v>44222</v>
+      </c>
+      <c r="B41" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="171" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="171">
+        <v>1</v>
+      </c>
+      <c r="E41" s="172">
+        <v>195000</v>
+      </c>
+      <c r="F41" s="172">
+        <f t="shared" si="0"/>
+        <v>195000</v>
+      </c>
+      <c r="G41" s="171"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="172">
+        <f t="shared" si="1"/>
+        <v>195000</v>
+      </c>
+      <c r="J41" s="174">
+        <f t="shared" si="2"/>
+        <v>195000</v>
+      </c>
+      <c r="K41" s="171"/>
+      <c r="L41" s="171"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="257"/>
+      <c r="B42" s="260"/>
+      <c r="C42" s="179" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="179">
+        <v>1</v>
+      </c>
+      <c r="E42" s="180">
+        <v>235000</v>
+      </c>
+      <c r="F42" s="180">
+        <f t="shared" si="0"/>
+        <v>235000</v>
+      </c>
+      <c r="G42" s="179"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="180">
+        <f t="shared" si="1"/>
+        <v>235000</v>
+      </c>
+      <c r="J42" s="182">
+        <f t="shared" si="2"/>
+        <v>235000</v>
+      </c>
+      <c r="K42" s="179"/>
+      <c r="L42" s="179"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="258"/>
+      <c r="B43" s="261"/>
+      <c r="C43" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="175">
+        <v>1</v>
+      </c>
+      <c r="E43" s="176">
+        <v>180000</v>
+      </c>
+      <c r="F43" s="176">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="G43" s="175"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="176">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+      <c r="J43" s="178">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
+      <c r="K43" s="175"/>
+      <c r="L43" s="175"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="256">
+        <v>44224</v>
+      </c>
+      <c r="B44" s="259" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="171" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="171">
+        <v>1</v>
+      </c>
+      <c r="E44" s="172">
+        <v>475000</v>
+      </c>
+      <c r="F44" s="172">
+        <f t="shared" si="0"/>
+        <v>475000</v>
+      </c>
+      <c r="G44" s="171"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="172">
+        <f t="shared" si="1"/>
+        <v>475000</v>
+      </c>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174">
+        <f>I44</f>
+        <v>475000</v>
+      </c>
+      <c r="L44" s="171"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="257"/>
+      <c r="B45" s="260"/>
+      <c r="C45" s="179" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="179">
+        <v>1</v>
+      </c>
+      <c r="E45" s="180">
+        <v>455000</v>
+      </c>
+      <c r="F45" s="180">
+        <f t="shared" si="0"/>
+        <v>455000</v>
+      </c>
+      <c r="G45" s="179"/>
+      <c r="H45" s="181"/>
+      <c r="I45" s="180">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182">
+        <f t="shared" ref="K45:K46" si="4">I45</f>
+        <v>455000</v>
+      </c>
+      <c r="L45" s="179"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="258"/>
+      <c r="B46" s="261"/>
+      <c r="C46" s="175" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="175">
+        <v>1</v>
+      </c>
+      <c r="E46" s="176">
+        <v>455000</v>
+      </c>
+      <c r="F46" s="176">
+        <f t="shared" si="0"/>
+        <v>455000</v>
+      </c>
+      <c r="G46" s="175"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="176">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
+      <c r="J46" s="178"/>
+      <c r="K46" s="178">
+        <f t="shared" si="4"/>
+        <v>455000</v>
+      </c>
+      <c r="L46" s="175"/>
+    </row>
+    <row r="47" spans="1:12" s="130" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A47" s="225" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="226"/>
+      <c r="C47" s="227"/>
+      <c r="D47" s="126">
+        <f>SUM(D9:D46)</f>
+        <v>43</v>
+      </c>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127">
+        <f>SUM(G9:G46)</f>
+        <v>20000</v>
+      </c>
+      <c r="H47" s="128"/>
+      <c r="I47" s="127">
+        <f>SUM(I9:I46)</f>
+        <v>16514500</v>
+      </c>
+      <c r="J47" s="127">
+        <f>SUM(J9:J46)</f>
+        <v>12085000</v>
+      </c>
+      <c r="K47" s="127">
+        <f>SUM(K9:K46)</f>
+        <v>4429500</v>
+      </c>
+      <c r="L47" s="129"/>
+    </row>
+    <row r="48" spans="1:12" s="97" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A48" s="232" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="232"/>
+      <c r="C48" s="232"/>
+      <c r="D48" s="232"/>
+      <c r="E48" s="232"/>
+      <c r="F48" s="232"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="135">
+        <v>608000</v>
+      </c>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="104"/>
+    </row>
+    <row r="49" spans="1:12" s="97" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A49" s="233" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="233"/>
+      <c r="C49" s="233"/>
+      <c r="D49" s="233"/>
+      <c r="E49" s="233"/>
+      <c r="F49" s="233"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="137">
+        <f>SUM(I47:I48)</f>
+        <v>17122500</v>
+      </c>
+      <c r="J49" s="139"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="140"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="153"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="144">
+        <f>J47+608000</f>
+        <v>12693000</v>
+      </c>
+      <c r="F53" s="263">
+        <v>20539000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="153"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="144">
+        <v>873000</v>
+      </c>
+      <c r="F54" s="263"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="153"/>
+      <c r="C55" s="153"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="144">
+        <v>4000000</v>
+      </c>
+      <c r="F55" s="263"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="153"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="144">
+        <v>900000</v>
+      </c>
+      <c r="F56" s="263"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="153"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="144">
+        <v>970000</v>
+      </c>
+      <c r="F57" s="263"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="153"/>
+      <c r="C58" s="153"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="144">
+        <v>887000</v>
+      </c>
+      <c r="F58" s="263"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="152" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="153"/>
+      <c r="C61" s="153"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="144">
+        <f>K47</f>
+        <v>4429500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="216" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="217"/>
+      <c r="C62" s="217"/>
+      <c r="D62" s="218"/>
+      <c r="E62" s="144">
+        <v>14200000</v>
+      </c>
+      <c r="F62" s="264">
+        <f>SUM(E62:E68)</f>
+        <v>19536000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="156"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="144">
+        <v>781000</v>
+      </c>
+      <c r="F63" s="264"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="152" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="153"/>
+      <c r="C64" s="153"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="144">
+        <v>300000</v>
+      </c>
+      <c r="F64" s="264"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="152" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="153"/>
+      <c r="C65" s="153"/>
+      <c r="D65" s="154"/>
+      <c r="E65" s="144">
+        <v>1359000</v>
+      </c>
+      <c r="F65" s="264"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="152" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="153"/>
+      <c r="C66" s="153"/>
+      <c r="D66" s="154"/>
+      <c r="E66" s="144">
+        <v>405000</v>
+      </c>
+      <c r="F66" s="264"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="153"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="144">
+        <v>1487000</v>
+      </c>
+      <c r="F67" s="264"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="156"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="157"/>
+      <c r="E68" s="144">
+        <v>1004000</v>
+      </c>
+      <c r="F68" s="264"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="267"/>
+      <c r="B69" s="270" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="268"/>
+      <c r="D69" s="269"/>
+      <c r="E69" s="160"/>
+      <c r="F69" s="266"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="265"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="45">
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -6128,7 +7792,37 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F62:F68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>